--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331758.0000700295</v>
+        <v>320664.026650235</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17227919.55637611</v>
+        <v>17227919.55637613</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3622257.930782086</v>
+        <v>3622257.930782085</v>
       </c>
     </row>
     <row r="11">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D5" t="n">
-        <v>1.201366535222904</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.36675456763109</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.36675456763109</v>
+        <v>1.20136653522287</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8.347254670637914</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.691193646939</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>30.02281559133009</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.16138275253147</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R6" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>32.36675456763103</v>
       </c>
     </row>
     <row r="7">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R8" t="n">
-        <v>60.2322170379165</v>
+        <v>37.67771549725175</v>
       </c>
       <c r="S8" t="n">
         <v>60.2322170379165</v>
       </c>
       <c r="T8" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>58.31459283660651</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>60.2322170379165</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>60.2322170379165</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.66137551878167</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>121.8916316581078</v>
       </c>
       <c r="I11" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850112</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S12" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>121.8916316581078</v>
       </c>
       <c r="U12" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>52.8379368320874</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>54.08350831231876</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.77256363426354</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9.167801431118576</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>33.94036506538219</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25.66137551878195</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="F14" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="G14" t="n">
-        <v>121.891631658108</v>
+        <v>57.25903180362968</v>
       </c>
       <c r="H14" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567956</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>114.7565067528335</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28796328765948</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>107.3621491644615</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.167801431118548</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361101</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.00261774065278</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>33.94036506538219</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>121.891631658108</v>
+        <v>107.3621491644613</v>
       </c>
       <c r="U17" t="n">
-        <v>107.3621491644615</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>109.9158126618166</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850108</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>62.83443050331583</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>33.94036506538245</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>33.94036506538219</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="G20" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>97.44988981605859</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567953</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083146</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S20" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>57.25903180362977</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="V21" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="W21" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94036506538244</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>33.94036506538226</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>292.9865489482365</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>332.6368630202508</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>239.402451264814</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>53.58409768342287</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="W23" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="X23" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>13.15788542391085</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>76.23989434542257</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.85384836195698</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>207.8863909897115</v>
       </c>
       <c r="V24" t="n">
-        <v>63.05971698313689</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.7622730182048</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>281.7654970375942</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="G26" t="n">
         <v>332.6368630202507</v>
       </c>
       <c r="H26" t="n">
-        <v>257.0306799354953</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.29067597793528</v>
       </c>
       <c r="S26" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>288.6958729703014</v>
       </c>
       <c r="X26" t="n">
         <v>332.6368630202507</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.5502999724113</v>
+        <v>133.7163264033908</v>
       </c>
       <c r="U27" t="n">
         <v>207.8863909897115</v>
@@ -2696,13 +2696,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>200.8750319572663</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.268398989460129</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>68.90824138809299</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.5922889849455</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>13.96650363601579</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.25217770443501</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>79.04628532410493</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>288.6958729703015</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="G29" t="n">
-        <v>332.6368630202507</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>298.6955521866505</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.7992677899944</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>110.8379160139071</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>332.6368630202507</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>76.23989434542257</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>55.89005272965888</v>
+        <v>80.24066312850917</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>97.88240335165968</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>183.8830936859346</v>
       </c>
       <c r="T31" t="n">
-        <v>97.88240335165972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>160.8019416323536</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>53.58409768342287</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.5705294868528</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>211.7992677899944</v>
@@ -3088,10 +3088,10 @@
         <v>253.0222025461392</v>
       </c>
       <c r="V32" t="n">
-        <v>324.2841774823289</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="W32" t="n">
-        <v>332.6368630202507</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.85384836195698</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>170.5502999724113</v>
@@ -3167,13 +3167,13 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>30.00628793780318</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>91.87617594975556</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>281.7654970375942</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.268398989460168</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>35.6736704241624</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U35" t="n">
         <v>253.0222025461392</v>
       </c>
       <c r="V35" t="n">
-        <v>332.6368630202509</v>
+        <v>156.5112656544188</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>332.6368630202509</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5635897393002898</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -3365,7 +3365,7 @@
         <v>76.23989434542257</v>
       </c>
       <c r="I36" t="n">
-        <v>24.85294348666547</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>170.5502999724113</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8863909897115</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>216.5170682942062</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>127.7622730182047</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>50.0259780427477</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>292.9865489482366</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>332.6368630202508</v>
+        <v>35.67367042416194</v>
       </c>
       <c r="F38" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="G38" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.290675977935308</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>24.85294348666547</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.85384836195698</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>112.089903338178</v>
@@ -3641,16 +3641,16 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>61.06062185842824</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>91.87617594975556</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.5482730574119</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>229.2172239801824</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>52.54827305741172</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.6368630202507</v>
+        <v>288.6958729703012</v>
       </c>
       <c r="C41" t="n">
-        <v>288.6958729703011</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>332.6368630202507</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.6368630202507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>91.34654510856548</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>24.85294348666547</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8863909897115</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>113.1405135065719</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6014918580186</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.1640051795755</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>281.7654970375941</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.6958729703012</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>332.6368630202506</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>292.9865489482366</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.290675977935308</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>332.6368630202506</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>332.6368630202506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>73.25903323460432</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>59.67784965226157</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.23989434542257</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24.85294348666547</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.85384836195699</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>207.8863909897115</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.2993925240062</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>281.7654970375941</v>
+        <v>136.466104513588</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="C5" t="n">
-        <v>3.802841916140693</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K5" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L5" t="n">
-        <v>12.8868402013538</v>
+        <v>12.88684020135377</v>
       </c>
       <c r="M5" t="n">
-        <v>44.92992722330858</v>
+        <v>44.9299272233085</v>
       </c>
       <c r="N5" t="n">
-        <v>76.97301424526336</v>
+        <v>76.97301424526322</v>
       </c>
       <c r="O5" t="n">
-        <v>101.8839163635076</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="P5" t="n">
-        <v>101.8839163635076</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.19022488105199</v>
+        <v>101.8839163635074</v>
       </c>
       <c r="R5" t="n">
-        <v>36.49653339859634</v>
+        <v>100.6704148127773</v>
       </c>
       <c r="S5" t="n">
-        <v>36.49653339859634</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="T5" t="n">
-        <v>36.49653339859634</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="U5" t="n">
-        <v>36.49653339859634</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="V5" t="n">
-        <v>36.49653339859634</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="W5" t="n">
-        <v>36.49653339859634</v>
+        <v>67.97672333032168</v>
       </c>
       <c r="X5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.49653339859634</v>
+        <v>35.28303184786608</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.71460222224795</v>
+        <v>11.02091073979221</v>
       </c>
       <c r="C6" t="n">
-        <v>43.71460222224795</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D6" t="n">
-        <v>43.71460222224795</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E6" t="n">
-        <v>43.71460222224795</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F6" t="n">
-        <v>43.71460222224795</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G6" t="n">
-        <v>43.71460222224795</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H6" t="n">
-        <v>43.71460222224795</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I6" t="n">
-        <v>32.91541672028936</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K6" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L6" t="n">
-        <v>32.69899211626076</v>
+        <v>32.69899211626073</v>
       </c>
       <c r="M6" t="n">
-        <v>46.6999115946768</v>
+        <v>64.74207913821546</v>
       </c>
       <c r="N6" t="n">
-        <v>78.74299861663158</v>
+        <v>78.74299861663144</v>
       </c>
       <c r="O6" t="n">
-        <v>110.7860856385864</v>
+        <v>110.7860856385862</v>
       </c>
       <c r="P6" t="n">
-        <v>129.4670182705244</v>
+        <v>129.4670182705241</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.1019851871592</v>
+        <v>109.101985187159</v>
       </c>
       <c r="R6" t="n">
-        <v>76.4082937047036</v>
+        <v>76.4082937047034</v>
       </c>
       <c r="S6" t="n">
-        <v>76.4082937047036</v>
+        <v>76.4082937047034</v>
       </c>
       <c r="T6" t="n">
-        <v>43.71460222224795</v>
+        <v>43.71460222224781</v>
       </c>
       <c r="U6" t="n">
-        <v>43.71460222224795</v>
+        <v>43.71460222224781</v>
       </c>
       <c r="V6" t="n">
-        <v>43.71460222224795</v>
+        <v>43.71460222224781</v>
       </c>
       <c r="W6" t="n">
-        <v>43.71460222224795</v>
+        <v>43.71460222224781</v>
       </c>
       <c r="X6" t="n">
-        <v>43.71460222224795</v>
+        <v>43.71460222224781</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.71460222224795</v>
+        <v>11.02091073979221</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="C7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="D7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="E7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="F7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="G7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="H7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="I7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="J7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="K7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="L7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="M7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="N7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="O7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="P7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="R7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="S7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="T7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="U7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="V7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="W7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="X7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.589340365410487</v>
+        <v>2.589340365410483</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="C8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="D8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="E8" t="n">
-        <v>4.81857736303332</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="F8" t="n">
         <v>4.81857736303332</v>
@@ -4819,37 +4819,37 @@
         <v>168.1194490961872</v>
       </c>
       <c r="O8" t="n">
-        <v>219.5012987724242</v>
+        <v>219.5012987724243</v>
       </c>
       <c r="P8" t="n">
         <v>240.928868151666</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.928868151666</v>
+        <v>225.398745656974</v>
       </c>
       <c r="R8" t="n">
-        <v>180.0882448810433</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="S8" t="n">
-        <v>119.2476216104205</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="T8" t="n">
-        <v>58.40699833979781</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="U8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="V8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="W8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="X8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
     </row>
     <row r="9">
@@ -4862,16 +4862,16 @@
         <v>63.72220649091869</v>
       </c>
       <c r="C9" t="n">
-        <v>4.81857736303332</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="D9" t="n">
-        <v>4.81857736303332</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="E9" t="n">
-        <v>4.81857736303332</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="F9" t="n">
-        <v>4.81857736303332</v>
+        <v>63.72220649091869</v>
       </c>
       <c r="G9" t="n">
         <v>4.81857736303332</v>
@@ -4886,16 +4886,16 @@
         <v>4.81857736303332</v>
       </c>
       <c r="K9" t="n">
-        <v>4.81857736303332</v>
+        <v>18.39246347380759</v>
       </c>
       <c r="L9" t="n">
-        <v>53.17999411140866</v>
+        <v>66.75388022218293</v>
       </c>
       <c r="M9" t="n">
-        <v>112.809888978946</v>
+        <v>87.63282518642697</v>
       </c>
       <c r="N9" t="n">
-        <v>172.4397838464833</v>
+        <v>147.2627200539643</v>
       </c>
       <c r="O9" t="n">
         <v>206.1961156134105</v>
@@ -4913,13 +4913,13 @@
         <v>124.5628297615414</v>
       </c>
       <c r="T9" t="n">
-        <v>63.72220649091869</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="U9" t="n">
-        <v>63.72220649091869</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="V9" t="n">
-        <v>63.72220649091869</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="W9" t="n">
         <v>63.72220649091869</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="C11" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="D11" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="E11" t="n">
-        <v>364.4436663717161</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="F11" t="n">
-        <v>338.5230850396134</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4002247788985</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="H11" t="n">
-        <v>92.27736451818357</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J11" t="n">
-        <v>13.67191254441049</v>
+        <v>13.67191254440996</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388328</v>
+        <v>52.5278855338828</v>
       </c>
       <c r="L11" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919089</v>
+        <v>225.6291823919085</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730485</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990623</v>
+        <v>422.1649418990622</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913166</v>
+        <v>477.3997621913167</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R11" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S11" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T11" t="n">
-        <v>487.566526632431</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="U11" t="n">
-        <v>487.566526632431</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="V11" t="n">
-        <v>487.566526632431</v>
+        <v>241.3208061110012</v>
       </c>
       <c r="W11" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="X11" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="Y11" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933636</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.84879888742437</v>
+        <v>262.256908320383</v>
       </c>
       <c r="C12" t="n">
-        <v>19.84879888742437</v>
+        <v>139.1340480596681</v>
       </c>
       <c r="D12" t="n">
-        <v>19.84879888742437</v>
+        <v>139.1340480596681</v>
       </c>
       <c r="E12" t="n">
-        <v>19.84879888742437</v>
+        <v>139.1340480596681</v>
       </c>
       <c r="F12" t="n">
-        <v>19.84879888742437</v>
+        <v>139.1340480596681</v>
       </c>
       <c r="G12" t="n">
-        <v>19.84879888742437</v>
+        <v>19.84879888742438</v>
       </c>
       <c r="H12" t="n">
-        <v>19.84879888742437</v>
+        <v>19.84879888742438</v>
       </c>
       <c r="I12" t="n">
-        <v>19.84879888742437</v>
+        <v>19.84879888742438</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065716</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L12" t="n">
-        <v>119.3106382502218</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905287</v>
       </c>
       <c r="O12" t="n">
         <v>421.9866026009621</v>
       </c>
       <c r="P12" t="n">
-        <v>480.7393491561083</v>
+        <v>480.7393491561085</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R12" t="n">
-        <v>440.0095749571773</v>
+        <v>440.0095749571775</v>
       </c>
       <c r="S12" t="n">
-        <v>319.466172774599</v>
+        <v>440.0095749571775</v>
       </c>
       <c r="T12" t="n">
-        <v>196.3433125138841</v>
+        <v>316.8867146964625</v>
       </c>
       <c r="U12" t="n">
-        <v>73.22045225316923</v>
+        <v>316.8867146964625</v>
       </c>
       <c r="V12" t="n">
-        <v>19.84879888742437</v>
+        <v>316.8867146964625</v>
       </c>
       <c r="W12" t="n">
-        <v>19.84879888742437</v>
+        <v>316.8867146964625</v>
       </c>
       <c r="X12" t="n">
-        <v>19.84879888742437</v>
+        <v>316.8867146964625</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.84879888742437</v>
+        <v>262.256908320383</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="C13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="D13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="E13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="F13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J13" t="n">
-        <v>19.01173601862698</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K13" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="L13" t="n">
-        <v>17.57578586549606</v>
+        <v>17.57578586549607</v>
       </c>
       <c r="M13" t="n">
-        <v>27.94346090360951</v>
+        <v>27.94346090360955</v>
       </c>
       <c r="N13" t="n">
-        <v>43.17200764107596</v>
+        <v>43.17200764107601</v>
       </c>
       <c r="O13" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="P13" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="R13" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="S13" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="T13" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="U13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="V13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="W13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="X13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648623</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="C14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="D14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="E14" t="n">
-        <v>461.6459453003289</v>
+        <v>313.8344569163306</v>
       </c>
       <c r="F14" t="n">
-        <v>338.5230850396138</v>
+        <v>190.7115966556157</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4002247788987</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="H14" t="n">
-        <v>92.27736451818355</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441059</v>
+        <v>13.67191254441005</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388359</v>
+        <v>52.52788553388294</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151474</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919095</v>
+        <v>225.6291823919086</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730492</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990631</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913174</v>
+        <v>477.3997621913164</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324309</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="T14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="U14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="V14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="W14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="X14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.5665266324319</v>
+        <v>436.9573171770455</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.5665266324319</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="C15" t="n">
-        <v>487.5665266324319</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="D15" t="n">
-        <v>487.5665266324319</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="E15" t="n">
-        <v>371.6508632457314</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="F15" t="n">
-        <v>248.5280029850163</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="G15" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="H15" t="n">
-        <v>48.42604092422387</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065762</v>
+        <v>43.6372227006573</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502224</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241161</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905294</v>
+        <v>333.1250381905287</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009628</v>
+        <v>421.9866026009621</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561091</v>
+        <v>480.7393491561085</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S15" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T15" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="U15" t="n">
-        <v>487.5665266324319</v>
+        <v>364.4436663717162</v>
       </c>
       <c r="V15" t="n">
-        <v>487.5665266324319</v>
+        <v>255.9970510540784</v>
       </c>
       <c r="W15" t="n">
-        <v>487.5665266324319</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="X15" t="n">
-        <v>487.5665266324319</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.5665266324319</v>
+        <v>9.751330532648618</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="C16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="D16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="E16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="F16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="G16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="H16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="I16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="J16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="K16" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="L16" t="n">
-        <v>17.57578586549613</v>
+        <v>17.57578586549607</v>
       </c>
       <c r="M16" t="n">
-        <v>27.94346090360964</v>
+        <v>27.94346090360954</v>
       </c>
       <c r="N16" t="n">
-        <v>43.17200764107615</v>
+        <v>43.172007641076</v>
       </c>
       <c r="O16" t="n">
-        <v>44.03452756838838</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="P16" t="n">
-        <v>32.14569333241766</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.01173601862697</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="R16" t="n">
-        <v>19.01173601862697</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="S16" t="n">
-        <v>19.01173601862697</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="T16" t="n">
-        <v>19.01173601862697</v>
+        <v>44.0345275683882</v>
       </c>
       <c r="U16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="V16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="W16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="X16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.01173601862697</v>
+        <v>9.751330532648618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="C17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="D17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="E17" t="n">
-        <v>9.751330532648639</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="F17" t="n">
-        <v>9.751330532648639</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="G17" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441028</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388321</v>
+        <v>52.52788553388319</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151471</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919092</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N17" t="n">
-        <v>331.171882673049</v>
+        <v>331.1718826730486</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990631</v>
+        <v>422.1649418990625</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913175</v>
+        <v>477.3997621913167</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S17" t="n">
-        <v>364.4436663717168</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="T17" t="n">
-        <v>241.3208061110017</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="U17" t="n">
-        <v>132.8741907933638</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="V17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="W17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="X17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.751330532648639</v>
+        <v>379.1199113147935</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.751330532648639</v>
+        <v>243.9002641891379</v>
       </c>
       <c r="C18" t="n">
-        <v>9.751330532648639</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="D18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="E18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="F18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065739</v>
+        <v>43.63722270065731</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502222</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241159</v>
+        <v>220.1999092241156</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905292</v>
+        <v>333.1250381905287</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009627</v>
+        <v>421.9866026009621</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561091</v>
+        <v>480.7393491561085</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R18" t="n">
-        <v>440.0095749571782</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="S18" t="n">
-        <v>319.4661727746</v>
+        <v>367.0231244498528</v>
       </c>
       <c r="T18" t="n">
-        <v>196.3433125138848</v>
+        <v>367.0231244498528</v>
       </c>
       <c r="U18" t="n">
-        <v>73.22045225316968</v>
+        <v>367.0231244498528</v>
       </c>
       <c r="V18" t="n">
-        <v>9.751330532648639</v>
+        <v>367.0231244498528</v>
       </c>
       <c r="W18" t="n">
-        <v>9.751330532648639</v>
+        <v>367.0231244498528</v>
       </c>
       <c r="X18" t="n">
-        <v>9.751330532648639</v>
+        <v>367.0231244498528</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.751330532648639</v>
+        <v>367.0231244498528</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="L19" t="n">
-        <v>17.57578586549616</v>
+        <v>17.57578586549607</v>
       </c>
       <c r="M19" t="n">
-        <v>27.9434609036097</v>
+        <v>27.94346090360955</v>
       </c>
       <c r="N19" t="n">
-        <v>43.17200764107623</v>
+        <v>43.17200764107601</v>
       </c>
       <c r="O19" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="P19" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="R19" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="S19" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="T19" t="n">
-        <v>9.751330532648639</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="U19" t="n">
-        <v>9.751330532648639</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="V19" t="n">
-        <v>9.751330532648639</v>
+        <v>44.03452756838821</v>
       </c>
       <c r="W19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="X19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.751330532648639</v>
+        <v>9.751330532648623</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="C20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="D20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="E20" t="n">
-        <v>313.8344569163317</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="F20" t="n">
-        <v>313.8344569163317</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G20" t="n">
-        <v>190.7115966556165</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H20" t="n">
-        <v>92.27736451818353</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J20" t="n">
         <v>13.67191254441019</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388314</v>
+        <v>52.52788553388302</v>
       </c>
       <c r="L20" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919091</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N20" t="n">
-        <v>331.171882673049</v>
+        <v>331.1718826730484</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990631</v>
+        <v>422.1649418990623</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913177</v>
+        <v>477.3997621913167</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324311</v>
       </c>
       <c r="R20" t="n">
-        <v>436.9573171770469</v>
+        <v>436.9573171770458</v>
       </c>
       <c r="S20" t="n">
-        <v>313.8344569163317</v>
+        <v>313.8344569163308</v>
       </c>
       <c r="T20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="U20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="V20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="W20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="X20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
       <c r="Y20" t="n">
-        <v>313.8344569163317</v>
+        <v>255.9970510540785</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="C21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="D21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="E21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="F21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K21" t="n">
-        <v>43.6372227006574</v>
+        <v>43.63722270065733</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502222</v>
+        <v>119.3106382502221</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241159</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905292</v>
+        <v>333.1250381905288</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009627</v>
+        <v>421.9866026009622</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561091</v>
+        <v>480.7393491561086</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324319</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="T21" t="n">
-        <v>379.1199113147944</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="U21" t="n">
-        <v>255.9970510540791</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="V21" t="n">
-        <v>132.8741907933639</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W21" t="n">
-        <v>9.751330532648646</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X21" t="n">
-        <v>9.751330532648646</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.751330532648646</v>
+        <v>132.8741907933636</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="C22" t="n">
-        <v>9.751330532648646</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="D22" t="n">
-        <v>9.751330532648646</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="E22" t="n">
-        <v>9.751330532648646</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="F22" t="n">
-        <v>9.751330532648646</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648646</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="J22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="K22" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648623</v>
       </c>
       <c r="L22" t="n">
-        <v>17.57578586549617</v>
+        <v>17.5757858654961</v>
       </c>
       <c r="M22" t="n">
-        <v>27.94346090360971</v>
+        <v>27.9434609036096</v>
       </c>
       <c r="N22" t="n">
-        <v>43.17200764107623</v>
+        <v>43.17200764107607</v>
       </c>
       <c r="O22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="P22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="R22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="S22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="T22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="U22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="V22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="W22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="X22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838828</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>658.5537894138299</v>
+        <v>322.5569580802429</v>
       </c>
       <c r="C23" t="n">
-        <v>658.5537894138299</v>
+        <v>322.5569580802429</v>
       </c>
       <c r="D23" t="n">
-        <v>658.5537894138299</v>
+        <v>322.5569580802429</v>
       </c>
       <c r="E23" t="n">
-        <v>658.5537894138299</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F23" t="n">
-        <v>658.5537894138299</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G23" t="n">
-        <v>322.5569580802432</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H23" t="n">
-        <v>80.7363002369967</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I23" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J23" t="n">
-        <v>91.81170871208292</v>
+        <v>91.81170871208255</v>
       </c>
       <c r="K23" t="n">
-        <v>222.5107827646405</v>
+        <v>222.51078276464</v>
       </c>
       <c r="L23" t="n">
-        <v>408.6406865371936</v>
+        <v>408.6406865371932</v>
       </c>
       <c r="M23" t="n">
-        <v>636.3312022157979</v>
+        <v>636.3312022157976</v>
       </c>
       <c r="N23" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274285</v>
       </c>
       <c r="O23" t="n">
         <v>1083.349541243458</v>
       </c>
       <c r="P23" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q23" t="n">
         <v>1330.547452081003</v>
@@ -6025,16 +6025,16 @@
         <v>1330.547452081003</v>
       </c>
       <c r="V23" t="n">
-        <v>1330.547452081003</v>
+        <v>994.5506207474161</v>
       </c>
       <c r="W23" t="n">
-        <v>994.5506207474166</v>
+        <v>658.5537894138295</v>
       </c>
       <c r="X23" t="n">
-        <v>658.5537894138299</v>
+        <v>322.5569580802429</v>
       </c>
       <c r="Y23" t="n">
-        <v>658.5537894138299</v>
+        <v>322.5569580802429</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>177.2651794815279</v>
+        <v>360.2346358271793</v>
       </c>
       <c r="C24" t="n">
-        <v>26.61094904162007</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="D24" t="n">
-        <v>26.61094904162007</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="E24" t="n">
-        <v>26.61094904162007</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="F24" t="n">
-        <v>26.61094904162007</v>
+        <v>222.5120363528254</v>
       </c>
       <c r="G24" t="n">
-        <v>26.61094904162007</v>
+        <v>103.6209433299257</v>
       </c>
       <c r="H24" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I24" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J24" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938206</v>
       </c>
       <c r="K24" t="n">
         <v>149.4793540917939</v>
@@ -6092,28 +6092,28 @@
         <v>1090.638518367583</v>
       </c>
       <c r="R24" t="n">
-        <v>1067.553823052475</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S24" t="n">
-        <v>954.3316984684564</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T24" t="n">
-        <v>782.0586681932934</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="U24" t="n">
-        <v>572.0724146683324</v>
+        <v>880.6522648426217</v>
       </c>
       <c r="V24" t="n">
-        <v>508.375730846982</v>
+        <v>880.6522648426217</v>
       </c>
       <c r="W24" t="n">
-        <v>508.375730846982</v>
+        <v>880.6522648426217</v>
       </c>
       <c r="X24" t="n">
-        <v>508.375730846982</v>
+        <v>691.3451871926334</v>
       </c>
       <c r="Y24" t="n">
-        <v>329.0615139224892</v>
+        <v>512.0309702681407</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E25" t="n">
-        <v>155.6637500701098</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F25" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G25" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H25" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I25" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J25" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="K25" t="n">
-        <v>55.16279074493478</v>
+        <v>55.16279074493477</v>
       </c>
       <c r="L25" t="n">
         <v>111.1380865765676</v>
       </c>
       <c r="M25" t="n">
-        <v>172.2740716746393</v>
+        <v>172.2740716746392</v>
       </c>
       <c r="N25" t="n">
         <v>237.0637715315905</v>
       </c>
       <c r="O25" t="n">
-        <v>283.7040380698307</v>
+        <v>283.7040380698306</v>
       </c>
       <c r="P25" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Q25" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R25" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S25" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="T25" t="n">
-        <v>311.2225622109073</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="U25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="V25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y25" t="n">
-        <v>311.2225622109073</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>622.2347298049999</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="C26" t="n">
-        <v>622.2347298049999</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="D26" t="n">
-        <v>622.2347298049999</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="E26" t="n">
-        <v>622.2347298049999</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="F26" t="n">
-        <v>622.2347298049999</v>
+        <v>362.6077803752067</v>
       </c>
       <c r="G26" t="n">
-        <v>286.2378984714133</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H26" t="n">
         <v>26.61094904162006</v>
@@ -6226,16 +6226,16 @@
         <v>26.61094904162006</v>
       </c>
       <c r="J26" t="n">
-        <v>91.81170871208255</v>
+        <v>91.81170871208258</v>
       </c>
       <c r="K26" t="n">
-        <v>222.51078276464</v>
+        <v>222.5107827646401</v>
       </c>
       <c r="L26" t="n">
-        <v>408.6406865371935</v>
+        <v>408.6406865371933</v>
       </c>
       <c r="M26" t="n">
-        <v>636.3312022157977</v>
+        <v>636.3312022157976</v>
       </c>
       <c r="N26" t="n">
         <v>870.7049639274285</v>
@@ -6250,28 +6250,28 @@
         <v>1330.547452081003</v>
       </c>
       <c r="R26" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S26" t="n">
-        <v>1213.809543508424</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="T26" t="n">
-        <v>1213.809543508424</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="U26" t="n">
-        <v>958.2315611385866</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="V26" t="n">
-        <v>958.2315611385866</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="W26" t="n">
-        <v>958.2315611385866</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="X26" t="n">
-        <v>622.2347298049999</v>
+        <v>698.6046117087933</v>
       </c>
       <c r="Y26" t="n">
-        <v>622.2347298049999</v>
+        <v>698.6046117087933</v>
       </c>
     </row>
     <row r="27">
@@ -6335,19 +6335,19 @@
         <v>1090.638518367583</v>
       </c>
       <c r="T27" t="n">
-        <v>918.3654880924198</v>
+        <v>955.5715220005213</v>
       </c>
       <c r="U27" t="n">
-        <v>708.3792345674588</v>
+        <v>745.5852684755602</v>
       </c>
       <c r="V27" t="n">
-        <v>485.8392329385258</v>
+        <v>523.0452668466272</v>
       </c>
       <c r="W27" t="n">
-        <v>282.9351602544185</v>
+        <v>292.928020979914</v>
       </c>
       <c r="X27" t="n">
-        <v>282.9351602544185</v>
+        <v>103.6209433299257</v>
       </c>
       <c r="Y27" t="n">
         <v>103.6209433299257</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9513874346042</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9513874346042</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9513874346042</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9513874346042</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9513874346042</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G28" t="n">
-        <v>213.9513874346042</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H28" t="n">
-        <v>144.3471032042073</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I28" t="n">
-        <v>40.71852847193904</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J28" t="n">
         <v>26.61094904162006</v>
@@ -6405,31 +6405,31 @@
         <v>311.2225622109072</v>
       </c>
       <c r="Q28" t="n">
-        <v>293.7961200852153</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R28" t="n">
-        <v>213.9513874346042</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9513874346042</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="T28" t="n">
-        <v>213.9513874346042</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="U28" t="n">
-        <v>213.9513874346042</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="V28" t="n">
-        <v>213.9513874346042</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="W28" t="n">
-        <v>213.9513874346042</v>
+        <v>27.89216014208483</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9513874346042</v>
+        <v>27.89216014208483</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9513874346042</v>
+        <v>27.89216014208483</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>664.3204593516214</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="C29" t="n">
-        <v>664.3204593516214</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="D29" t="n">
-        <v>664.3204593516214</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="E29" t="n">
-        <v>664.3204593516214</v>
+        <v>362.6077803752067</v>
       </c>
       <c r="F29" t="n">
-        <v>664.3204593516214</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G29" t="n">
-        <v>328.3236280180348</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H29" t="n">
         <v>26.61094904162006</v>
@@ -6463,52 +6463,52 @@
         <v>26.61094904162006</v>
       </c>
       <c r="J29" t="n">
-        <v>91.81170871208255</v>
+        <v>91.81170871208246</v>
       </c>
       <c r="K29" t="n">
         <v>222.51078276464</v>
       </c>
       <c r="L29" t="n">
-        <v>408.6406865371935</v>
+        <v>408.6406865371931</v>
       </c>
       <c r="M29" t="n">
-        <v>636.3312022157977</v>
+        <v>636.3312022157975</v>
       </c>
       <c r="N29" t="n">
-        <v>870.7049639274287</v>
+        <v>870.7049639274285</v>
       </c>
       <c r="O29" t="n">
         <v>1083.349541243458</v>
       </c>
       <c r="P29" t="n">
-        <v>1242.411117718198</v>
+        <v>1242.411117718199</v>
       </c>
       <c r="Q29" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R29" t="n">
-        <v>1326.213435941674</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="S29" t="n">
-        <v>1326.213435941674</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="T29" t="n">
-        <v>1112.274781608347</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="U29" t="n">
-        <v>1000.317290685208</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="V29" t="n">
-        <v>1000.317290685208</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="W29" t="n">
-        <v>1000.317290685208</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="X29" t="n">
-        <v>664.3204593516214</v>
+        <v>1326.213435941675</v>
       </c>
       <c r="Y29" t="n">
-        <v>664.3204593516214</v>
+        <v>990.2166046080879</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.5782134261202</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="C30" t="n">
-        <v>417.5782134261202</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="D30" t="n">
-        <v>287.4892460476005</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="E30" t="n">
-        <v>151.0427551584883</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="F30" t="n">
-        <v>26.61094904162006</v>
+        <v>222.5120363528254</v>
       </c>
       <c r="G30" t="n">
-        <v>26.61094904162006</v>
+        <v>103.6209433299257</v>
       </c>
       <c r="H30" t="n">
         <v>26.61094904162006</v>
@@ -6542,7 +6542,7 @@
         <v>26.61094904162006</v>
       </c>
       <c r="J30" t="n">
-        <v>53.21247430938206</v>
+        <v>53.21247430938207</v>
       </c>
       <c r="K30" t="n">
         <v>149.4793540917939</v>
@@ -6569,25 +6569,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S30" t="n">
-        <v>977.4163937835644</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T30" t="n">
-        <v>805.1433635084015</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="U30" t="n">
-        <v>805.1433635084015</v>
+        <v>880.6522648426217</v>
       </c>
       <c r="V30" t="n">
-        <v>805.1433635084015</v>
+        <v>658.1122632136887</v>
       </c>
       <c r="W30" t="n">
-        <v>805.1433635084015</v>
+        <v>427.9950173469756</v>
       </c>
       <c r="X30" t="n">
-        <v>748.6887647915744</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="Y30" t="n">
-        <v>569.3745478670816</v>
+        <v>346.9438424696936</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="C31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="D31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="E31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="F31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="G31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="H31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J31" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="K31" t="n">
-        <v>1074.48768061503</v>
+        <v>55.16279074493477</v>
       </c>
       <c r="L31" t="n">
-        <v>1130.462976446663</v>
+        <v>111.1380865765676</v>
       </c>
       <c r="M31" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746392</v>
       </c>
       <c r="N31" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315905</v>
       </c>
       <c r="O31" t="n">
-        <v>1303.028927939926</v>
+        <v>283.7040380698306</v>
       </c>
       <c r="P31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Q31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R31" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S31" t="n">
-        <v>1144.806953408342</v>
+        <v>125.482063538246</v>
       </c>
       <c r="T31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="U31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
       <c r="Y31" t="n">
-        <v>1045.935838911716</v>
+        <v>125.482063538246</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="C32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="D32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="E32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="F32" t="n">
-        <v>80.7363002369967</v>
+        <v>189.0371527106641</v>
       </c>
       <c r="G32" t="n">
-        <v>80.7363002369967</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H32" t="n">
-        <v>80.7363002369967</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I32" t="n">
         <v>26.61094904162006</v>
@@ -6706,19 +6706,19 @@
         <v>222.51078276464</v>
       </c>
       <c r="L32" t="n">
-        <v>408.6406865371935</v>
+        <v>408.6406865371932</v>
       </c>
       <c r="M32" t="n">
-        <v>636.3312022157979</v>
+        <v>636.3312022157976</v>
       </c>
       <c r="N32" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274286</v>
       </c>
       <c r="O32" t="n">
         <v>1083.349541243458</v>
       </c>
       <c r="P32" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q32" t="n">
         <v>1330.547452081003</v>
@@ -6727,25 +6727,25 @@
         <v>1330.547452081003</v>
       </c>
       <c r="S32" t="n">
-        <v>1213.809543508424</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="T32" t="n">
-        <v>999.8708891750965</v>
+        <v>1116.608797747675</v>
       </c>
       <c r="U32" t="n">
-        <v>744.2929068052589</v>
+        <v>861.0308153778374</v>
       </c>
       <c r="V32" t="n">
-        <v>416.7331315705833</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="W32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="X32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.7363002369967</v>
+        <v>525.0339840442507</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.61094904162006</v>
+        <v>296.1562725044275</v>
       </c>
       <c r="C33" t="n">
-        <v>26.61094904162006</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="D33" t="n">
-        <v>26.61094904162006</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="E33" t="n">
-        <v>26.61094904162006</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="F33" t="n">
-        <v>26.61094904162006</v>
+        <v>145.5020420645198</v>
       </c>
       <c r="G33" t="n">
         <v>26.61094904162006</v>
@@ -6803,28 +6803,28 @@
         <v>1090.638518367583</v>
       </c>
       <c r="R33" t="n">
-        <v>1067.553823052475</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="S33" t="n">
-        <v>954.3316984684564</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T33" t="n">
-        <v>782.0586681932934</v>
+        <v>918.3654880924198</v>
       </c>
       <c r="U33" t="n">
-        <v>572.0724146683324</v>
+        <v>708.3792345674588</v>
       </c>
       <c r="V33" t="n">
-        <v>349.5324130393994</v>
+        <v>678.069852812102</v>
       </c>
       <c r="W33" t="n">
-        <v>119.4151671726863</v>
+        <v>447.9526069453889</v>
       </c>
       <c r="X33" t="n">
-        <v>26.61094904162006</v>
+        <v>447.9526069453889</v>
       </c>
       <c r="Y33" t="n">
-        <v>26.61094904162006</v>
+        <v>447.9526069453889</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="C34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="D34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="E34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="F34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="G34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="K34" t="n">
-        <v>1074.48768061503</v>
+        <v>55.16279074493477</v>
       </c>
       <c r="L34" t="n">
-        <v>1130.462976446663</v>
+        <v>111.1380865765676</v>
       </c>
       <c r="M34" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746392</v>
       </c>
       <c r="N34" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315905</v>
       </c>
       <c r="O34" t="n">
-        <v>1303.028927939926</v>
+        <v>283.7040380698306</v>
       </c>
       <c r="P34" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Q34" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R34" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S34" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="T34" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="U34" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="V34" t="n">
-        <v>1330.547452081003</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="W34" t="n">
-        <v>1047.21705001218</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="X34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="Y34" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>362.6077803752069</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="C35" t="n">
-        <v>362.6077803752069</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="D35" t="n">
-        <v>362.6077803752069</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="E35" t="n">
-        <v>26.61094904162007</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="F35" t="n">
-        <v>26.61094904162007</v>
+        <v>362.6077803752067</v>
       </c>
       <c r="G35" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="H35" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I35" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J35" t="n">
-        <v>91.81170871208258</v>
+        <v>91.81170871208246</v>
       </c>
       <c r="K35" t="n">
-        <v>222.5107827646401</v>
+        <v>222.51078276464</v>
       </c>
       <c r="L35" t="n">
-        <v>408.6406865371933</v>
+        <v>408.6406865371931</v>
       </c>
       <c r="M35" t="n">
-        <v>636.3312022157976</v>
+        <v>636.3312022157975</v>
       </c>
       <c r="N35" t="n">
         <v>870.7049639274285</v>
@@ -6967,22 +6967,22 @@
         <v>1326.213435941675</v>
       </c>
       <c r="T35" t="n">
-        <v>1290.179425412218</v>
+        <v>1112.274781608347</v>
       </c>
       <c r="U35" t="n">
-        <v>1034.60144304238</v>
+        <v>856.6967992385094</v>
       </c>
       <c r="V35" t="n">
-        <v>698.6046117087936</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="W35" t="n">
-        <v>698.6046117087936</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="X35" t="n">
-        <v>362.6077803752069</v>
+        <v>698.6046117087934</v>
       </c>
       <c r="Y35" t="n">
-        <v>362.6077803752069</v>
+        <v>698.6046117087934</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>372.6171083545075</v>
+        <v>497.5980729096014</v>
       </c>
       <c r="C36" t="n">
-        <v>372.6171083545075</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="D36" t="n">
-        <v>372.6171083545075</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="E36" t="n">
-        <v>372.0478257895577</v>
+        <v>346.9438424696936</v>
       </c>
       <c r="F36" t="n">
-        <v>247.6160196726895</v>
+        <v>222.5120363528254</v>
       </c>
       <c r="G36" t="n">
-        <v>128.7249266497898</v>
+        <v>103.6209433299257</v>
       </c>
       <c r="H36" t="n">
-        <v>51.71493236148418</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I36" t="n">
-        <v>26.61094904162007</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J36" t="n">
         <v>53.21247430938207</v>
@@ -7043,25 +7043,25 @@
         <v>1090.638518367583</v>
       </c>
       <c r="S36" t="n">
-        <v>977.4163937835644</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="T36" t="n">
-        <v>805.1433635084015</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="U36" t="n">
-        <v>595.1571099834405</v>
+        <v>1090.638518367583</v>
       </c>
       <c r="V36" t="n">
-        <v>372.6171083545075</v>
+        <v>868.0985167386498</v>
       </c>
       <c r="W36" t="n">
-        <v>372.6171083545075</v>
+        <v>649.3944073505627</v>
       </c>
       <c r="X36" t="n">
-        <v>372.6171083545075</v>
+        <v>649.3944073505627</v>
       </c>
       <c r="Y36" t="n">
-        <v>372.6171083545075</v>
+        <v>649.3944073505627</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1045.935838911716</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="C37" t="n">
-        <v>1045.935838911716</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="D37" t="n">
-        <v>1045.935838911716</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="E37" t="n">
-        <v>1045.935838911716</v>
+        <v>155.6637500701097</v>
       </c>
       <c r="F37" t="n">
-        <v>1045.935838911716</v>
+        <v>155.6637500701097</v>
       </c>
       <c r="G37" t="n">
-        <v>1045.935838911716</v>
+        <v>155.6637500701097</v>
       </c>
       <c r="H37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="I37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="J37" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162006</v>
       </c>
       <c r="K37" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493477</v>
       </c>
       <c r="L37" t="n">
-        <v>1130.462976446664</v>
+        <v>111.1380865765676</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746392</v>
       </c>
       <c r="N37" t="n">
-        <v>1256.388661401687</v>
+        <v>237.0637715315905</v>
       </c>
       <c r="O37" t="n">
-        <v>1303.028927939927</v>
+        <v>283.7040380698306</v>
       </c>
       <c r="P37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Q37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="R37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="S37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="T37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="U37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="V37" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.016161128733</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.935838911716</v>
+        <v>311.2225622109072</v>
       </c>
       <c r="Y37" t="n">
-        <v>1045.935838911716</v>
+        <v>311.2225622109072</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1330.547452081003</v>
+        <v>734.6386222382497</v>
       </c>
       <c r="C38" t="n">
-        <v>1330.547452081003</v>
+        <v>734.6386222382497</v>
       </c>
       <c r="D38" t="n">
-        <v>1034.60144304238</v>
+        <v>734.6386222382497</v>
       </c>
       <c r="E38" t="n">
-        <v>698.6046117087934</v>
+        <v>698.6046117087932</v>
       </c>
       <c r="F38" t="n">
-        <v>362.6077803752067</v>
+        <v>362.6077803752066</v>
       </c>
       <c r="G38" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H38" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I38" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J38" t="n">
         <v>91.81170871208246</v>
       </c>
       <c r="K38" t="n">
-        <v>222.51078276464</v>
+        <v>222.5107827646399</v>
       </c>
       <c r="L38" t="n">
         <v>408.6406865371931</v>
       </c>
       <c r="M38" t="n">
-        <v>636.3312022157975</v>
+        <v>636.3312022157974</v>
       </c>
       <c r="N38" t="n">
-        <v>870.7049639274285</v>
+        <v>870.7049639274286</v>
       </c>
       <c r="O38" t="n">
         <v>1083.349541243458</v>
       </c>
       <c r="P38" t="n">
-        <v>1242.411117718199</v>
+        <v>1242.411117718198</v>
       </c>
       <c r="Q38" t="n">
         <v>1330.547452081003</v>
       </c>
       <c r="R38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="S38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="T38" t="n">
-        <v>1330.547452081003</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="U38" t="n">
-        <v>1330.547452081003</v>
+        <v>1070.635453571836</v>
       </c>
       <c r="V38" t="n">
-        <v>1330.547452081003</v>
+        <v>734.6386222382497</v>
       </c>
       <c r="W38" t="n">
-        <v>1330.547452081003</v>
+        <v>734.6386222382497</v>
       </c>
       <c r="X38" t="n">
-        <v>1330.547452081003</v>
+        <v>734.6386222382497</v>
       </c>
       <c r="Y38" t="n">
-        <v>1330.547452081003</v>
+        <v>734.6386222382497</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.61094904162006</v>
+        <v>202.369162801392</v>
       </c>
       <c r="C39" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="D39" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="E39" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="F39" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="G39" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="H39" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="I39" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J39" t="n">
-        <v>53.21247430938207</v>
+        <v>53.21247430938205</v>
       </c>
       <c r="K39" t="n">
         <v>149.4793540917939</v>
       </c>
       <c r="L39" t="n">
-        <v>309.0317057809417</v>
+        <v>309.0317057809416</v>
       </c>
       <c r="M39" t="n">
-        <v>507.8037389159041</v>
+        <v>507.8037389159039</v>
       </c>
       <c r="N39" t="n">
-        <v>721.2022954985405</v>
+        <v>721.2022954985403</v>
       </c>
       <c r="O39" t="n">
-        <v>901.9774171004487</v>
+        <v>901.9774171004485</v>
       </c>
       <c r="P39" t="n">
-        <v>1034.498896544095</v>
+        <v>1034.498896544094</v>
       </c>
       <c r="Q39" t="n">
-        <v>1090.638518367583</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="R39" t="n">
-        <v>1067.553823052475</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="S39" t="n">
-        <v>954.3316984684564</v>
+        <v>977.4163937835642</v>
       </c>
       <c r="T39" t="n">
-        <v>782.0586681932934</v>
+        <v>805.1433635084013</v>
       </c>
       <c r="U39" t="n">
-        <v>572.0724146683324</v>
+        <v>595.1571099834403</v>
       </c>
       <c r="V39" t="n">
-        <v>349.5324130393994</v>
+        <v>533.4797141668461</v>
       </c>
       <c r="W39" t="n">
-        <v>119.4151671726863</v>
+        <v>533.4797141668461</v>
       </c>
       <c r="X39" t="n">
-        <v>26.61094904162006</v>
+        <v>533.4797141668461</v>
       </c>
       <c r="Y39" t="n">
-        <v>26.61094904162006</v>
+        <v>354.1654972423533</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="C40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="D40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="E40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="F40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="G40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="K40" t="n">
-        <v>1074.487680615031</v>
+        <v>55.16279074493474</v>
       </c>
       <c r="L40" t="n">
-        <v>1130.462976446663</v>
+        <v>111.1380865765675</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.598961544735</v>
+        <v>172.2740716746391</v>
       </c>
       <c r="N40" t="n">
-        <v>1256.388661401686</v>
+        <v>237.0637715315904</v>
       </c>
       <c r="O40" t="n">
-        <v>1303.028927939926</v>
+        <v>283.7040380698305</v>
       </c>
       <c r="P40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="Q40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="R40" t="n">
-        <v>1330.547452081003</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="S40" t="n">
-        <v>1277.468388386648</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="T40" t="n">
-        <v>1045.935838911716</v>
+        <v>79.69001273597533</v>
       </c>
       <c r="U40" t="n">
-        <v>1045.935838911716</v>
+        <v>79.69001273597533</v>
       </c>
       <c r="V40" t="n">
-        <v>1045.935838911716</v>
+        <v>79.69001273597533</v>
       </c>
       <c r="W40" t="n">
-        <v>1045.935838911716</v>
+        <v>79.69001273597533</v>
       </c>
       <c r="X40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="Y40" t="n">
-        <v>1045.935838911716</v>
+        <v>26.61094904162005</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>318.2229419409142</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="C41" t="n">
-        <v>26.61094904162006</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="D41" t="n">
-        <v>26.61094904162006</v>
+        <v>1034.60144304238</v>
       </c>
       <c r="E41" t="n">
-        <v>26.61094904162006</v>
+        <v>698.6046117087932</v>
       </c>
       <c r="F41" t="n">
-        <v>26.61094904162006</v>
+        <v>362.6077803752066</v>
       </c>
       <c r="G41" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="H41" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I41" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J41" t="n">
         <v>91.81170871208249</v>
@@ -7417,16 +7417,16 @@
         <v>222.5107827646399</v>
       </c>
       <c r="L41" t="n">
-        <v>408.6406865371937</v>
+        <v>408.640686537193</v>
       </c>
       <c r="M41" t="n">
-        <v>636.331202215798</v>
+        <v>636.3312022157974</v>
       </c>
       <c r="N41" t="n">
-        <v>870.7049639274289</v>
+        <v>870.7049639274283</v>
       </c>
       <c r="O41" t="n">
-        <v>1083.349541243458</v>
+        <v>1083.349541243457</v>
       </c>
       <c r="P41" t="n">
         <v>1242.411117718198</v>
@@ -7450,13 +7450,13 @@
         <v>1326.213435941674</v>
       </c>
       <c r="W41" t="n">
-        <v>990.2166046080874</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="X41" t="n">
-        <v>990.2166046080874</v>
+        <v>1326.213435941674</v>
       </c>
       <c r="Y41" t="n">
-        <v>654.2197732745008</v>
+        <v>1326.213435941674</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>313.7116703706401</v>
+        <v>529.4107211354153</v>
       </c>
       <c r="C42" t="n">
-        <v>163.0574399307323</v>
+        <v>437.1414836520158</v>
       </c>
       <c r="D42" t="n">
-        <v>163.0574399307323</v>
+        <v>307.0525162734962</v>
       </c>
       <c r="E42" t="n">
-        <v>26.61094904162006</v>
+        <v>170.6060253843839</v>
       </c>
       <c r="F42" t="n">
-        <v>26.61094904162006</v>
+        <v>170.6060253843839</v>
       </c>
       <c r="G42" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="H42" t="n">
-        <v>26.61094904162006</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="I42" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J42" t="n">
         <v>53.21247430938205</v>
@@ -7523,19 +7523,19 @@
         <v>1090.638518367582</v>
       </c>
       <c r="U42" t="n">
-        <v>880.6522648426214</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="V42" t="n">
-        <v>658.1122632136885</v>
+        <v>1090.638518367582</v>
       </c>
       <c r="W42" t="n">
-        <v>427.9950173469754</v>
+        <v>860.5212725008694</v>
       </c>
       <c r="X42" t="n">
-        <v>313.7116703706401</v>
+        <v>860.5212725008694</v>
       </c>
       <c r="Y42" t="n">
-        <v>313.7116703706401</v>
+        <v>681.2070555763767</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="C43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="D43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="E43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="F43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="G43" t="n">
-        <v>26.61094904162006</v>
+        <v>143.9483280108883</v>
       </c>
       <c r="H43" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="I43" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="J43" t="n">
-        <v>26.61094904162006</v>
+        <v>26.61094904162005</v>
       </c>
       <c r="K43" t="n">
         <v>55.16279074493474</v>
@@ -7602,19 +7602,19 @@
         <v>311.2225622109071</v>
       </c>
       <c r="U43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="V43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="W43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="X43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.61094904162006</v>
+        <v>311.2225622109071</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>994.550620747416</v>
+      </c>
+      <c r="C44" t="n">
+        <v>994.550620747416</v>
+      </c>
+      <c r="D44" t="n">
+        <v>994.550620747416</v>
+      </c>
+      <c r="E44" t="n">
+        <v>658.5537894138295</v>
+      </c>
+      <c r="F44" t="n">
         <v>362.6077803752066</v>
-      </c>
-      <c r="C44" t="n">
-        <v>26.61094904162005</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.61094904162005</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.61094904162005</v>
-      </c>
-      <c r="F44" t="n">
-        <v>26.61094904162005</v>
       </c>
       <c r="G44" t="n">
         <v>26.61094904162005</v>
@@ -7648,19 +7648,19 @@
         <v>26.61094904162005</v>
       </c>
       <c r="J44" t="n">
-        <v>91.81170871208249</v>
+        <v>91.81170871208295</v>
       </c>
       <c r="K44" t="n">
-        <v>222.5107827646399</v>
+        <v>222.5107827646404</v>
       </c>
       <c r="L44" t="n">
-        <v>408.6406865371931</v>
+        <v>408.6406865371935</v>
       </c>
       <c r="M44" t="n">
-        <v>636.3312022157974</v>
+        <v>636.3312022157978</v>
       </c>
       <c r="N44" t="n">
-        <v>870.7049639274286</v>
+        <v>870.7049639274287</v>
       </c>
       <c r="O44" t="n">
         <v>1083.349541243458</v>
@@ -7672,28 +7672,28 @@
         <v>1330.547452081003</v>
       </c>
       <c r="R44" t="n">
-        <v>1326.213435941674</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="S44" t="n">
-        <v>1326.213435941674</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="T44" t="n">
-        <v>1326.213435941674</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="U44" t="n">
-        <v>1326.213435941674</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="V44" t="n">
-        <v>1326.213435941674</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="W44" t="n">
-        <v>990.2166046080873</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="X44" t="n">
-        <v>990.2166046080873</v>
+        <v>1330.547452081003</v>
       </c>
       <c r="Y44" t="n">
-        <v>654.2197732745008</v>
+        <v>1330.547452081003</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>86.89160525602568</v>
+        <v>670.3464214741978</v>
       </c>
       <c r="C45" t="n">
-        <v>86.89160525602568</v>
+        <v>519.69219103429</v>
       </c>
       <c r="D45" t="n">
-        <v>86.89160525602568</v>
+        <v>389.6032236557703</v>
       </c>
       <c r="E45" t="n">
-        <v>86.89160525602568</v>
+        <v>253.156732766658</v>
       </c>
       <c r="F45" t="n">
-        <v>86.89160525602568</v>
+        <v>128.7249266497898</v>
       </c>
       <c r="G45" t="n">
-        <v>26.61094904162005</v>
+        <v>128.7249266497898</v>
       </c>
       <c r="H45" t="n">
-        <v>26.61094904162005</v>
+        <v>51.71493236148417</v>
       </c>
       <c r="I45" t="n">
         <v>26.61094904162005</v>
@@ -7751,28 +7751,28 @@
         <v>1090.638518367582</v>
       </c>
       <c r="R45" t="n">
-        <v>1090.638518367582</v>
+        <v>1067.553823052474</v>
       </c>
       <c r="S45" t="n">
-        <v>1090.638518367582</v>
+        <v>954.3316984684561</v>
       </c>
       <c r="T45" t="n">
-        <v>1090.638518367582</v>
+        <v>954.3316984684561</v>
       </c>
       <c r="U45" t="n">
-        <v>880.6522648426214</v>
+        <v>744.3454449434951</v>
       </c>
       <c r="V45" t="n">
-        <v>658.1122632136885</v>
+        <v>744.3454449434951</v>
       </c>
       <c r="W45" t="n">
-        <v>427.9950173469754</v>
+        <v>744.3454449434951</v>
       </c>
       <c r="X45" t="n">
-        <v>238.687939696987</v>
+        <v>744.3454449434951</v>
       </c>
       <c r="Y45" t="n">
-        <v>238.687939696987</v>
+        <v>744.3454449434951</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="C46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="D46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="E46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="F46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="G46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="H46" t="n">
         <v>26.61094904162005</v>
@@ -7839,19 +7839,19 @@
         <v>311.2225622109071</v>
       </c>
       <c r="U46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="V46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="W46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="X46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.61094904162005</v>
+        <v>173.3780121971818</v>
       </c>
     </row>
   </sheetData>
@@ -22573,7 +22573,7 @@
         <v>45.30876821055361</v>
       </c>
       <c r="K2" t="n">
-        <v>34.59292991576666</v>
+        <v>34.59292991576665</v>
       </c>
       <c r="L2" t="n">
         <v>18.68715897392866</v>
@@ -22591,7 +22591,7 @@
         <v>27.68343765293218</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.41767977011631</v>
+        <v>52.41767977011629</v>
       </c>
       <c r="R2" t="n">
         <v>86.56775819371971</v>
@@ -22646,7 +22646,7 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I3" t="n">
-        <v>48.98163419533764</v>
+        <v>48.98163419533763</v>
       </c>
       <c r="J3" t="n">
         <v>39.34074399253945</v>
@@ -22740,13 +22740,13 @@
         <v>30.34506479299962</v>
       </c>
       <c r="N4" t="n">
-        <v>24.46454532135644</v>
+        <v>24.46454532135643</v>
       </c>
       <c r="O4" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P4" t="n">
-        <v>43.26304678555946</v>
+        <v>43.26304678555945</v>
       </c>
       <c r="Q4" t="n">
         <v>66.45011700163332</v>
@@ -22786,10 +22786,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>356.8769919144676</v>
+        <v>356.8769919144677</v>
       </c>
       <c r="D5" t="n">
-        <v>380.385350960276</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22807,10 +22807,10 @@
         <v>96.97399528284214</v>
       </c>
       <c r="J5" t="n">
-        <v>29.66398046922551</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K5" t="n">
-        <v>11.14544858436602</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22825,16 +22825,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.176537307564416</v>
+        <v>1.176537307564445</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1453469500650613</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R5" t="n">
-        <v>42.62207730368385</v>
+        <v>73.78746533609208</v>
       </c>
       <c r="S5" t="n">
-        <v>141.2173044442944</v>
+        <v>108.8505498766633</v>
       </c>
       <c r="T5" t="n">
         <v>216.7260371756751</v>
@@ -22849,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>353.1913244486427</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -22865,7 +22865,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>140.8004334648708</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -22883,10 +22883,10 @@
         <v>82.05570981277423</v>
       </c>
       <c r="I6" t="n">
-        <v>34.89478863114812</v>
+        <v>45.58598227808712</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.8752335562832</v>
+        <v>27.87523355628326</v>
       </c>
       <c r="S6" t="n">
         <v>123.2751796797921</v>
       </c>
       <c r="T6" t="n">
-        <v>140.6107635766676</v>
+        <v>140.6107635766677</v>
       </c>
       <c r="U6" t="n">
         <v>207.9260082612874</v>
@@ -22931,7 +22931,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>145.1543201876168</v>
       </c>
     </row>
     <row r="7">
@@ -22965,28 +22965,28 @@
         <v>117.7744934041466</v>
       </c>
       <c r="J7" t="n">
-        <v>49.65937055503829</v>
+        <v>49.6593705550383</v>
       </c>
       <c r="K7" t="n">
-        <v>29.8141006186564</v>
+        <v>29.81410061865641</v>
       </c>
       <c r="L7" t="n">
-        <v>18.51666445282824</v>
+        <v>18.51666445282825</v>
       </c>
       <c r="M7" t="n">
-        <v>17.3839497110951</v>
+        <v>17.38394971109511</v>
       </c>
       <c r="N7" t="n">
-        <v>11.81161658658296</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O7" t="n">
-        <v>24.2468162453257</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P7" t="n">
-        <v>33.26277565816527</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.52644762742798</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R7" t="n">
         <v>101.7461592834061</v>
@@ -23029,10 +23029,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>338.3254725967044</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>352.4932770474055</v>
       </c>
       <c r="G8" t="n">
         <v>407.8354119480459</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.3748212697451</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.787986801539986</v>
+        <v>27.34248834220474</v>
       </c>
       <c r="S8" t="n">
-        <v>77.36882391920736</v>
+        <v>77.36882391920734</v>
       </c>
       <c r="T8" t="n">
-        <v>155.7991325496033</v>
+        <v>216.0313495875199</v>
       </c>
       <c r="U8" t="n">
-        <v>200.047008222044</v>
+        <v>253.0995449890409</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23102,7 +23102,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>90.83309529890218</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -23114,7 +23114,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.2194552824311</v>
+        <v>59.90486244582458</v>
       </c>
       <c r="H9" t="n">
         <v>81.23566436231876</v>
@@ -23153,7 +23153,7 @@
         <v>61.46580892585432</v>
       </c>
       <c r="T9" t="n">
-        <v>112.4030568879587</v>
+        <v>172.6352739258752</v>
       </c>
       <c r="U9" t="n">
         <v>207.9204221206168</v>
@@ -23162,7 +23162,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X9" t="n">
         <v>187.4140068734885</v>
@@ -23266,19 +23266,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>276.6660579765131</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>387.0641185665403</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>285.706308513469</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H11" t="n">
         <v>184.2729538648623</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083153</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S11" t="n">
         <v>132.189652850835</v>
       </c>
       <c r="T11" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791874</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888156</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>259.9268955169341</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23339,7 +23339,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>27.25605647740092</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -23351,7 +23351,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>80.00854575966319</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>50.23150693813962</v>
+        <v>50.23150693813959</v>
       </c>
       <c r="U12" t="n">
-        <v>86.0204313439623</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V12" t="n">
-        <v>167.4766647805562</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
@@ -23405,7 +23405,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>123.4375664429291</v>
       </c>
     </row>
     <row r="13">
@@ -23439,10 +23439,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
-        <v>12.3229361241017</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361105</v>
+        <v>11.76994589361104</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.64592635853825</v>
+        <v>44.64592635853824</v>
       </c>
       <c r="R13" t="n">
-        <v>93.75581532553741</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S13" t="n">
         <v>189.5843005223167</v>
@@ -23472,7 +23472,7 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5493377295417</v>
+        <v>248.6089726641595</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23503,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>372.8963141158389</v>
+        <v>276.6660579765132</v>
       </c>
       <c r="F14" t="n">
-        <v>290.833862427214</v>
+        <v>290.8338624272143</v>
       </c>
       <c r="G14" t="n">
-        <v>285.7063085134688</v>
+        <v>350.3389083679471</v>
       </c>
       <c r="H14" t="n">
-        <v>184.2729538648621</v>
+        <v>184.2729538648624</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083149</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>132.189652850835</v>
@@ -23582,22 +23582,22 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>20.32551922738762</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>1.295856397591535</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671227967</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.0813821585011</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S15" t="n">
         <v>119.3379681607525</v>
@@ -23630,19 +23630,19 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9120630020701</v>
+        <v>86.02043134396233</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>112.9524524481822</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499383</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309714011</v>
       </c>
     </row>
     <row r="16">
@@ -23676,10 +23676,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J16" t="n">
-        <v>37.09549975836522</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>11.76994589361104</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.64330861788544</v>
+        <v>44.64592635853824</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S16" t="n">
         <v>189.5843005223167</v>
@@ -23709,7 +23709,7 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5493377295417</v>
+        <v>248.6089726641595</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765131</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272142</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5979401715768</v>
+        <v>285.706308513469</v>
       </c>
       <c r="H17" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567953</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083146</v>
+        <v>50.10311736083152</v>
       </c>
       <c r="S17" t="n">
-        <v>10.29802119272701</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T17" t="n">
-        <v>93.10018522791852</v>
+        <v>107.6296677215652</v>
       </c>
       <c r="U17" t="n">
-        <v>145.7183980824619</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>216.7941095454088</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>28.38673943844394</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>39.23187547369213</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626679</v>
       </c>
       <c r="E18" t="n">
         <v>135.0820259802211</v>
@@ -23828,13 +23828,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966318</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28796328765947</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671227938</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>50.23150693813939</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U18" t="n">
-        <v>86.02043134396209</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V18" t="n">
-        <v>157.4801711093278</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -23907,16 +23907,16 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H19" t="n">
-        <v>148.2079894389679</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I19" t="n">
         <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836521</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118519</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,19 +23931,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361098</v>
+        <v>11.76994589361104</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.6459263585382</v>
+        <v>44.64592635853824</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S19" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T19" t="n">
-        <v>196.6746508882478</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U19" t="n">
         <v>282.5493377295417</v>
@@ -23952,7 +23952,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>246.556732982752</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23977,19 +23977,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765131</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272142</v>
       </c>
       <c r="G20" t="n">
-        <v>285.7063085134687</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H20" t="n">
-        <v>208.7146957069115</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.29802119272692</v>
+        <v>10.29802119272721</v>
       </c>
       <c r="T20" t="n">
-        <v>214.9918168860265</v>
+        <v>157.7327850823968</v>
       </c>
       <c r="U20" t="n">
         <v>253.0805472469234</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>28.38673943844394</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24065,13 +24065,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966318</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28796328765947</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671227938</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850108</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S21" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
-        <v>64.76098943178624</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>86.020431343962</v>
+        <v>86.02043134396227</v>
       </c>
       <c r="V21" t="n">
-        <v>98.42296995453556</v>
+        <v>98.42296995453584</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9244417499379</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>70.1589255907864</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>134.5627016892882</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24144,16 +24144,16 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H22" t="n">
-        <v>148.2079894389679</v>
+        <v>114.2676243735857</v>
       </c>
       <c r="I22" t="n">
         <v>112.4303652576383</v>
       </c>
       <c r="J22" t="n">
-        <v>37.09549975836521</v>
+        <v>37.09549975836523</v>
       </c>
       <c r="K22" t="n">
-        <v>9.167801431118519</v>
+        <v>9.167801431118562</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361098</v>
+        <v>11.76994589361102</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.6459263585382</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
@@ -24214,19 +24214,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>105.5711406863844</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>74.23176839152421</v>
+        <v>406.868631411775</v>
       </c>
       <c r="H23" t="n">
-        <v>59.2931009218365</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>53.58409768342287</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>253.0222025461392</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>6.048878183266083</v>
       </c>
       <c r="W23" t="n">
-        <v>34.6521816611446</v>
+        <v>34.65218166114471</v>
       </c>
       <c r="X23" t="n">
-        <v>52.92121599602291</v>
+        <v>52.92121599602302</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>135.9898027115979</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24296,13 +24296,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>76.23989434542257</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>24.85294348666547</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.85384836195698</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>157.2548846295067</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>27.99040242095199</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>165.6014918580186</v>
@@ -24420,7 +24420,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390948855</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24454,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>80.0886310650713</v>
       </c>
       <c r="G26" t="n">
-        <v>74.23176839152435</v>
+        <v>74.23176839152433</v>
       </c>
       <c r="H26" t="n">
-        <v>41.66487225115519</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I26" t="n">
         <v>53.58409768342287</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T26" t="n">
         <v>211.7992677899944</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>78.59317171109399</v>
       </c>
       <c r="X26" t="n">
         <v>52.92121599602302</v>
@@ -24575,7 +24575,7 @@
         <v>112.089903338178</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>36.83397356902049</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>26.94104145077975</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>182.0875395149281</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24618,13 +24618,13 @@
         <v>165.6014918580186</v>
       </c>
       <c r="H28" t="n">
-        <v>76.39115113591316</v>
+        <v>145.2993925240062</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.5922889849455</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>13.96650363601579</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>17.25217770443501</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>79.04628532410493</v>
       </c>
       <c r="S28" t="n">
         <v>183.8830936859346</v>
@@ -24663,7 +24663,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>107.7939252839814</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,16 +24688,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661437013</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507124</v>
       </c>
       <c r="G29" t="n">
-        <v>74.23176839152433</v>
+        <v>406.868631411775</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>298.6955521866505</v>
       </c>
       <c r="I29" t="n">
         <v>53.58409768342287</v>
@@ -24733,10 +24733,10 @@
         <v>115.5705294868528</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.7992677899944</v>
       </c>
       <c r="U29" t="n">
-        <v>142.1842865322321</v>
+        <v>253.0222025461392</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24745,10 +24745,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>52.92121599602302</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>59.88893896835413</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>76.23989434542257</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>24.85294348666547</v>
@@ -24809,25 +24809,25 @@
         <v>22.85384836195698</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8863909897115</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>131.5239541438296</v>
+        <v>107.1733437449793</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>165.6014918580186</v>
       </c>
       <c r="H31" t="n">
-        <v>145.2993925240062</v>
+        <v>47.41698917234648</v>
       </c>
       <c r="I31" t="n">
         <v>102.5922889849455</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>131.3348206285227</v>
+        <v>229.2172239801824</v>
       </c>
       <c r="U31" t="n">
         <v>282.5314935766891</v>
@@ -24928,16 +24928,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>80.0886310650713</v>
       </c>
       <c r="G32" t="n">
-        <v>406.868631411775</v>
+        <v>246.0666897794214</v>
       </c>
       <c r="H32" t="n">
         <v>298.6955521866505</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>53.58409768342287</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>4.29067597793528</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>115.5705294868528</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>14.40156372118793</v>
+        <v>6.048878183266083</v>
       </c>
       <c r="W32" t="n">
-        <v>34.65218166114471</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
@@ -25010,7 +25010,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>76.23989434542257</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.85384836195698</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>190.3083136748404</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>95.5378309237329</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -25131,16 +25131,16 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5314935766891</v>
+        <v>0.7659965390948855</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>230.4711200053866</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25162,13 +25162,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>65.92082661437001</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507124</v>
       </c>
       <c r="G35" t="n">
-        <v>406.868631411775</v>
+        <v>74.23176839152427</v>
       </c>
       <c r="H35" t="n">
         <v>298.6955521866505</v>
@@ -25207,19 +25207,19 @@
         <v>115.5705294868528</v>
       </c>
       <c r="T35" t="n">
-        <v>176.125597365832</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.048878183265913</v>
+        <v>182.174475549098</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>52.92121599602285</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>134.5184362409209</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>24.85294348666547</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>22.85384836195698</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>112.089903338178</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.5502999724113</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>11.2990051138398</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,7 +25329,7 @@
         <v>165.6014918580186</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2993925240062</v>
+        <v>17.53711950580143</v>
       </c>
       <c r="I37" t="n">
         <v>102.5922889849455</v>
@@ -25374,10 +25374,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>230.4711200053864</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>88.60016854726234</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>65.92082661437013</v>
+        <v>362.884019210459</v>
       </c>
       <c r="F38" t="n">
-        <v>80.08863106507124</v>
+        <v>80.08863106507135</v>
       </c>
       <c r="G38" t="n">
-        <v>74.23176839152427</v>
+        <v>74.23176839152438</v>
       </c>
       <c r="H38" t="n">
         <v>298.6955521866505</v>
       </c>
       <c r="I38" t="n">
-        <v>53.58409768342287</v>
+        <v>53.58409768342288</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.29067597793528</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>115.5705294868528</v>
@@ -25447,10 +25447,10 @@
         <v>211.7992677899944</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0222025461392</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>6.04887818326614</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -25490,7 +25490,7 @@
         <v>76.23989434542257</v>
       </c>
       <c r="I39" t="n">
-        <v>24.85294348666547</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.85384836195699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>159.2539797542154</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>95.5378309237329</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25572,7 +25572,7 @@
         <v>102.5922889849455</v>
       </c>
       <c r="J40" t="n">
-        <v>13.96650363601579</v>
+        <v>13.9665036360158</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.25217770443501</v>
+        <v>17.25217770443504</v>
       </c>
       <c r="R40" t="n">
-        <v>79.04628532410493</v>
+        <v>79.04628532410494</v>
       </c>
       <c r="S40" t="n">
-        <v>131.3348206285227</v>
+        <v>183.8830936859346</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>179.191245937435</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63.8529352340322</v>
+        <v>107.7939252839817</v>
       </c>
       <c r="C41" t="n">
-        <v>100.5478735117975</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661437024</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>80.08863106507135</v>
       </c>
       <c r="G41" t="n">
-        <v>406.868631411775</v>
+        <v>74.23176839152438</v>
       </c>
       <c r="H41" t="n">
         <v>298.6955521866505</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>34.65218166114471</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>59.88893896835418</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>57.80114302694322</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7021820926707</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>76.23989434542257</v>
       </c>
       <c r="I42" t="n">
-        <v>24.85294348666547</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>170.5502999724113</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8863909897115</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>74.2734933669166</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6014918580186</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.2993925240062</v>
+        <v>29.13538734443064</v>
       </c>
       <c r="I43" t="n">
         <v>102.5922889849455</v>
@@ -25842,7 +25842,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U43" t="n">
-        <v>0.7659965390949992</v>
+        <v>282.5314935766891</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.7939252839817</v>
+        <v>63.85293523403226</v>
       </c>
       <c r="C44" t="n">
-        <v>56.60688346184804</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>65.92082661437024</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>119.7389451370854</v>
       </c>
       <c r="G44" t="n">
-        <v>406.868631411775</v>
+        <v>74.23176839152438</v>
       </c>
       <c r="H44" t="n">
         <v>298.6955521866505</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.290675977935308</v>
       </c>
       <c r="S44" t="n">
         <v>115.5705294868528</v>
@@ -25927,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>34.65218166114477</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>59.88893896835424</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>77.01933786194741</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>58.02433244040915</v>
+        <v>117.7021820926707</v>
       </c>
       <c r="H45" t="n">
-        <v>76.23989434542257</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.85294348666547</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.85384836195699</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>112.089903338178</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>170.5502999724113</v>
@@ -26003,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -26040,7 +26040,7 @@
         <v>165.6014918580186</v>
       </c>
       <c r="H46" t="n">
-        <v>145.2993925240062</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>102.5922889849455</v>
@@ -26079,7 +26079,7 @@
         <v>229.2172239801824</v>
       </c>
       <c r="U46" t="n">
-        <v>0.7659965390949992</v>
+        <v>146.0653890631012</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>192742.1977409007</v>
+        <v>192742.1977409006</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>222359.2499572883</v>
+        <v>222359.2499572882</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>270789.4223961044</v>
+        <v>270789.4223961043</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>270789.4223961045</v>
+        <v>270789.4223961044</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>270789.4223961045</v>
+        <v>270789.4223961044</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270789.4223961047</v>
+        <v>270789.4223961044</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>406914.6061747679</v>
+        <v>406914.6061747678</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>406914.6061747677</v>
+        <v>406914.6061747678</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>406914.6061747678</v>
+        <v>406914.6061747679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>406914.6061747679</v>
+        <v>406914.6061747681</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406914.6061747678</v>
+        <v>406914.6061747677</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62951.03685317955</v>
+        <v>62951.03685317954</v>
       </c>
       <c r="C2" t="n">
-        <v>77096.8790963603</v>
+        <v>77096.87909636025</v>
       </c>
       <c r="D2" t="n">
-        <v>88943.69998291534</v>
+        <v>88943.69998291532</v>
       </c>
       <c r="E2" t="n">
         <v>108315.7689584418</v>
       </c>
       <c r="F2" t="n">
-        <v>108315.7689584419</v>
+        <v>108315.7689584418</v>
       </c>
       <c r="G2" t="n">
         <v>108315.7689584418</v>
       </c>
       <c r="H2" t="n">
-        <v>108315.7689584419</v>
+        <v>108315.7689584418</v>
       </c>
       <c r="I2" t="n">
-        <v>162765.8424699071</v>
+        <v>162765.842469907</v>
       </c>
       <c r="J2" t="n">
         <v>162765.842469907</v>
       </c>
       <c r="K2" t="n">
-        <v>162765.8424699071</v>
+        <v>162765.842469907</v>
       </c>
       <c r="L2" t="n">
-        <v>162765.8424699071</v>
+        <v>162765.842469907</v>
       </c>
       <c r="M2" t="n">
-        <v>162765.8424699071</v>
+        <v>162765.842469907</v>
       </c>
       <c r="N2" t="n">
-        <v>162765.8424699071</v>
+        <v>162765.842469907</v>
       </c>
       <c r="O2" t="n">
         <v>162765.842469907</v>
@@ -26368,13 +26368,13 @@
         <v>204388.91618249</v>
       </c>
       <c r="C3" t="n">
-        <v>52209.7772805008</v>
+        <v>52209.77728050073</v>
       </c>
       <c r="D3" t="n">
-        <v>42463.12874659775</v>
+        <v>42463.12874659782</v>
       </c>
       <c r="E3" t="n">
-        <v>65868.04718407344</v>
+        <v>65868.0471840735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>192601.9595275128</v>
+        <v>192601.959527513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>8330.166889562071</v>
       </c>
       <c r="L3" t="n">
-        <v>7052.497762067004</v>
+        <v>7052.497762067012</v>
       </c>
       <c r="M3" t="n">
-        <v>15365.77276101016</v>
+        <v>15365.77276101017</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20.12645726155358</v>
+        <v>20.12645726155354</v>
       </c>
       <c r="D4" t="n">
         <v>43.64462950941392</v>
       </c>
       <c r="E4" t="n">
-        <v>89.57007674701693</v>
+        <v>89.57007674701697</v>
       </c>
       <c r="F4" t="n">
-        <v>89.57007674701705</v>
+        <v>89.57007674701697</v>
       </c>
       <c r="G4" t="n">
-        <v>89.57007674701714</v>
+        <v>89.57007674701697</v>
       </c>
       <c r="H4" t="n">
-        <v>89.57007674701714</v>
+        <v>89.57007674701701</v>
       </c>
       <c r="I4" t="n">
         <v>235.9678686324524</v>
@@ -26453,10 +26453,10 @@
         <v>235.9678686324524</v>
       </c>
       <c r="N4" t="n">
-        <v>235.9678686324524</v>
+        <v>235.9678686324523</v>
       </c>
       <c r="O4" t="n">
-        <v>235.9678686324524</v>
+        <v>235.9678686324523</v>
       </c>
       <c r="P4" t="n">
         <v>235.9678686324523</v>
@@ -26472,22 +26472,22 @@
         <v>38251.52928777246</v>
       </c>
       <c r="C5" t="n">
-        <v>41219.00407381341</v>
+        <v>41219.0040738134</v>
       </c>
       <c r="D5" t="n">
         <v>43773.78778279354</v>
       </c>
       <c r="E5" t="n">
+        <v>15182.83026754881</v>
+      </c>
+      <c r="F5" t="n">
         <v>15182.8302675488</v>
       </c>
-      <c r="F5" t="n">
-        <v>15182.83026754882</v>
-      </c>
       <c r="G5" t="n">
-        <v>15182.83026754882</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754883</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="I5" t="n">
         <v>31950.999411582</v>
@@ -26502,10 +26502,10 @@
         <v>31950.999411582</v>
       </c>
       <c r="M5" t="n">
-        <v>31950.99941158201</v>
+        <v>31950.999411582</v>
       </c>
       <c r="N5" t="n">
-        <v>31950.999411582</v>
+        <v>31950.99941158199</v>
       </c>
       <c r="O5" t="n">
         <v>31950.99941158199</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179689.4086170829</v>
+        <v>-181177.9752137506</v>
       </c>
       <c r="C6" t="n">
-        <v>-16352.02871521547</v>
+        <v>-17769.86610066721</v>
       </c>
       <c r="D6" t="n">
-        <v>2663.138824014633</v>
+        <v>1304.535542995548</v>
       </c>
       <c r="E6" t="n">
-        <v>27175.32143007251</v>
+        <v>25913.57849393108</v>
       </c>
       <c r="F6" t="n">
-        <v>93043.36861414605</v>
+        <v>91781.62567800458</v>
       </c>
       <c r="G6" t="n">
-        <v>93043.36861414601</v>
+        <v>91781.6256780046</v>
       </c>
       <c r="H6" t="n">
-        <v>93043.36861414602</v>
+        <v>91781.6256780046</v>
       </c>
       <c r="I6" t="n">
-        <v>-62023.08433782007</v>
+        <v>-63012.57690640442</v>
       </c>
       <c r="J6" t="n">
-        <v>130578.8751896926</v>
+        <v>129589.3826211085</v>
       </c>
       <c r="K6" t="n">
-        <v>122248.7083001306</v>
+        <v>121259.2157315465</v>
       </c>
       <c r="L6" t="n">
-        <v>123526.3774276257</v>
+        <v>122536.8848590415</v>
       </c>
       <c r="M6" t="n">
-        <v>115213.1024286825</v>
+        <v>114223.6098600984</v>
       </c>
       <c r="N6" t="n">
-        <v>130578.8751896926</v>
+        <v>129589.3826211085</v>
       </c>
       <c r="O6" t="n">
-        <v>130578.8751896925</v>
+        <v>129589.3826211085</v>
       </c>
       <c r="P6" t="n">
-        <v>130578.8751896926</v>
+        <v>129589.3826211085</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
-        <v>257.9589631239193</v>
+        <v>257.9589631239192</v>
       </c>
       <c r="D3" t="n">
         <v>297.4343571967077</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933879</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="G3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="H3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="I3" t="n">
         <v>537.9210155940714</v>
@@ -26773,7 +26773,7 @@
         <v>537.9210155940714</v>
       </c>
       <c r="N3" t="n">
-        <v>537.9210155940714</v>
+        <v>537.9210155940713</v>
       </c>
       <c r="O3" t="n">
         <v>537.9210155940713</v>
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D4" t="n">
         <v>60.2322170379165</v>
@@ -26801,34 +26801,34 @@
         <v>121.8916316581078</v>
       </c>
       <c r="F4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="G4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="I4" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202507</v>
       </c>
       <c r="J4" t="n">
         <v>332.6368630202507</v>
       </c>
       <c r="K4" t="n">
-        <v>332.6368630202507</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="L4" t="n">
         <v>332.6368630202507</v>
       </c>
       <c r="M4" t="n">
-        <v>332.6368630202509</v>
+        <v>332.6368630202508</v>
       </c>
       <c r="N4" t="n">
-        <v>332.6368630202508</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="O4" t="n">
-        <v>332.6368630202507</v>
+        <v>332.6368630202506</v>
       </c>
       <c r="P4" t="n">
         <v>332.6368630202506</v>
@@ -26962,13 +26962,13 @@
         <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
-        <v>45.85211506096252</v>
+        <v>45.85211506096246</v>
       </c>
       <c r="D3" t="n">
-        <v>39.47539407278839</v>
+        <v>39.47539407278845</v>
       </c>
       <c r="E3" t="n">
-        <v>59.07110439668008</v>
+        <v>59.07110439668014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>181.4155540006834</v>
+        <v>181.4155540006835</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="D4" t="n">
-        <v>27.86546247028541</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="E4" t="n">
-        <v>61.65941462019126</v>
+        <v>61.65941462019133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>210.7452313621428</v>
+        <v>210.7452313621429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>32.36675456763106</v>
       </c>
       <c r="L4" t="n">
-        <v>27.86546247028541</v>
+        <v>27.86546247028544</v>
       </c>
       <c r="M4" t="n">
-        <v>61.65941462019133</v>
+        <v>61.65941462019138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="L4" t="n">
-        <v>27.86546247028541</v>
+        <v>27.86546247028546</v>
       </c>
       <c r="M4" t="n">
-        <v>61.65941462019126</v>
+        <v>61.65941462019133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31071,7 +31071,7 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.08101864827586</v>
+        <v>92.08101864827587</v>
       </c>
       <c r="R2" t="n">
         <v>53.56284138546617</v>
@@ -31123,7 +31123,7 @@
         <v>0.4562298241354165</v>
       </c>
       <c r="H3" t="n">
-        <v>4.406219617307838</v>
+        <v>4.406219617307839</v>
       </c>
       <c r="I3" t="n">
         <v>15.70791280466237</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3824877588020532</v>
       </c>
       <c r="H4" t="n">
         <v>3.400663891894621</v>
@@ -31220,13 +31220,13 @@
         <v>59.95669477294365</v>
       </c>
       <c r="N4" t="n">
-        <v>58.53105858104513</v>
+        <v>58.53105858104514</v>
       </c>
       <c r="O4" t="n">
-        <v>54.0629061259484</v>
+        <v>54.06290612594841</v>
       </c>
       <c r="P4" t="n">
-        <v>46.26015584638647</v>
+        <v>46.26015584638648</v>
       </c>
       <c r="Q4" t="n">
         <v>32.02813405750647</v>
@@ -31287,7 +31287,7 @@
         <v>39.97975045561768</v>
       </c>
       <c r="J5" t="n">
-        <v>88.01585747312059</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K5" t="n">
         <v>131.9129545948713</v>
@@ -31299,7 +31299,7 @@
         <v>182.0918061653583</v>
       </c>
       <c r="N5" t="n">
-        <v>181.4852459054152</v>
+        <v>181.4852459054151</v>
       </c>
       <c r="O5" t="n">
         <v>174.7263648162623</v>
@@ -31311,16 +31311,16 @@
         <v>111.986596900696</v>
       </c>
       <c r="R5" t="n">
-        <v>65.14176770787094</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S5" t="n">
-        <v>23.63111506406558</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T5" t="n">
-        <v>4.539559240502337</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08296167658256692</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5548551282288074</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H6" t="n">
-        <v>5.358732422630852</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I6" t="n">
         <v>19.10356472191289</v>
       </c>
       <c r="J6" t="n">
-        <v>52.42164174200326</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333336</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>120.4741365042417</v>
       </c>
       <c r="M6" t="n">
-        <v>106.5294649568029</v>
+        <v>124.7538766169429</v>
       </c>
       <c r="N6" t="n">
-        <v>117.7388674217977</v>
+        <v>99.51445576165754</v>
       </c>
       <c r="O6" t="n">
-        <v>125.05431345652</v>
+        <v>125.0543134565199</v>
       </c>
       <c r="P6" t="n">
         <v>105.9529937404641</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.82677040338253</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R6" t="n">
-        <v>34.44968945266229</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S6" t="n">
         <v>10.30619064933771</v>
@@ -31399,7 +31399,7 @@
         <v>2.236455538781903</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0365036268571584</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4651719007152642</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H7" t="n">
-        <v>4.135801080904806</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I7" t="n">
         <v>13.98898770514631</v>
       </c>
       <c r="J7" t="n">
-        <v>32.88765338056918</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K7" t="n">
-        <v>54.04451719219159</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L7" t="n">
-        <v>69.15837512997665</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M7" t="n">
-        <v>72.91780985484817</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N7" t="n">
-        <v>71.18398731581861</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O7" t="n">
-        <v>65.7499337483721</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P7" t="n">
-        <v>56.26042697378066</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.95180343171181</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R7" t="n">
         <v>20.91582019034269</v>
       </c>
       <c r="S7" t="n">
-        <v>8.106677578828737</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T7" t="n">
-        <v>1.987552666692492</v>
+        <v>1.987552666692491</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02537301276628717</v>
+        <v>0.02537301276628716</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31606,19 +31606,19 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>103.3079314048225</v>
       </c>
       <c r="L9" t="n">
         <v>138.9102627643681</v>
       </c>
       <c r="M9" t="n">
-        <v>152.6193390872284</v>
+        <v>113.4769654475382</v>
       </c>
       <c r="N9" t="n">
         <v>145.6043298920832</v>
       </c>
       <c r="O9" t="n">
-        <v>126.7848637039669</v>
+        <v>152.2162412721679</v>
       </c>
       <c r="P9" t="n">
         <v>122.1669532417949</v>
@@ -31758,16 +31758,16 @@
         <v>14.67763440620414</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K11" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1677814287378</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M11" t="n">
         <v>251.6552347055676</v>
@@ -31776,7 +31776,7 @@
         <v>255.7272795005514</v>
       </c>
       <c r="O11" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P11" t="n">
         <v>206.094195010879</v>
@@ -31785,13 +31785,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835436</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752493</v>
       </c>
       <c r="T11" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150974</v>
       </c>
       <c r="U11" t="n">
         <v>0.114655022824004</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329473</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741887</v>
       </c>
       <c r="I12" t="n">
         <v>26.40158371234051</v>
@@ -31861,10 +31861,10 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088639</v>
+        <v>97.88429202088641</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S12" t="n">
         <v>14.24340216837732</v>
@@ -31873,7 +31873,7 @@
         <v>3.090835086833238</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453603</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339779</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I13" t="n">
         <v>19.33311585165454</v>
@@ -31925,19 +31925,19 @@
         <v>74.69081637972941</v>
       </c>
       <c r="L13" t="n">
-        <v>95.57852981800431</v>
+        <v>95.57852981800433</v>
       </c>
       <c r="M13" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428687</v>
+        <v>98.37797434428688</v>
       </c>
       <c r="O13" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350811</v>
       </c>
       <c r="P13" t="n">
-        <v>77.75325673833488</v>
+        <v>77.7532567383349</v>
       </c>
       <c r="Q13" t="n">
         <v>53.83232470060155</v>
@@ -31949,7 +31949,7 @@
         <v>11.20362245695941</v>
       </c>
       <c r="T13" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U13" t="n">
         <v>0.03506611097639883</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.433187785300051</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278026</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J14" t="n">
         <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L14" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055677</v>
+        <v>251.6552347055676</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005515</v>
+        <v>255.7272795005514</v>
       </c>
       <c r="O14" t="n">
         <v>241.4760184604741</v>
       </c>
       <c r="P14" t="n">
-        <v>206.0941950108791</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835439</v>
+        <v>90.02748221835436</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752494</v>
+        <v>32.65876665752493</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150976</v>
+        <v>6.273779530150974</v>
       </c>
       <c r="U14" t="n">
         <v>0.114655022824004</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329476</v>
+        <v>0.7668230683329473</v>
       </c>
       <c r="H15" t="n">
-        <v>7.40589647574189</v>
+        <v>7.405896475741887</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234052</v>
+        <v>26.40158371234051</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210538</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K15" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4981403413271</v>
+        <v>166.498140341327</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590237</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P15" t="n">
         <v>146.4295734608766</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088645</v>
+        <v>97.88429202088641</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807548</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837733</v>
+        <v>14.24340216837732</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833239</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453605</v>
+        <v>0.05044888607453603</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339779</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153009</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724225</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K16" t="n">
-        <v>74.69081637972944</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L16" t="n">
-        <v>95.57852981800437</v>
+        <v>95.57852981800433</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428693</v>
+        <v>98.37797434428688</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350814</v>
+        <v>90.86798224350811</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833493</v>
+        <v>77.7532567383349</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060157</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821141</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S16" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639885</v>
+        <v>0.03506611097639883</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.433187785300051</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278028</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J17" t="n">
         <v>121.6400217926103</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L17" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M17" t="n">
-        <v>251.6552347055678</v>
+        <v>251.6552347055676</v>
       </c>
       <c r="N17" t="n">
-        <v>255.7272795005516</v>
+        <v>255.7272795005514</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P17" t="n">
-        <v>206.0941950108792</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835442</v>
+        <v>90.02748221835436</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752495</v>
+        <v>32.65876665752493</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150978</v>
+        <v>6.273779530150974</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146550228240041</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329479</v>
+        <v>0.7668230683329473</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741892</v>
+        <v>7.405896475741887</v>
       </c>
       <c r="I18" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234051</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210541</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K18" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4981403413271</v>
+        <v>166.498140341327</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2954765683965</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O18" t="n">
-        <v>182.4467148590238</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P18" t="n">
-        <v>146.4295734608767</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088648</v>
+        <v>97.88429202088641</v>
       </c>
       <c r="R18" t="n">
-        <v>47.6102954180755</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S18" t="n">
-        <v>14.24340216837733</v>
+        <v>14.24340216837732</v>
       </c>
       <c r="T18" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453603</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339783</v>
+        <v>0.6428787012339779</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153011</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I19" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972947</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L19" t="n">
-        <v>95.5785298180044</v>
+        <v>95.57852981800433</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428695</v>
+        <v>98.37797434428688</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350817</v>
+        <v>90.86798224350811</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833495</v>
+        <v>77.7532567383349</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060159</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821142</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S19" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817907</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03506611097639886</v>
+        <v>0.03506611097639883</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278028</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J20" t="n">
         <v>121.6400217926103</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L20" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055678</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005516</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108792</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835442</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752495</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150978</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146550228240041</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329479</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741892</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I21" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210541</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L21" t="n">
         <v>166.4981403413271</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683965</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590238</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608767</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088648</v>
+        <v>97.88429202088642</v>
       </c>
       <c r="R21" t="n">
-        <v>47.6102954180755</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T21" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339783</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153011</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972947</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L22" t="n">
-        <v>95.5785298180044</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428695</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350817</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833495</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060159</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821142</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817907</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639886</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>22.14666774252374</v>
       </c>
       <c r="I38" t="n">
-        <v>83.36964805503695</v>
+        <v>83.36964805503693</v>
       </c>
       <c r="J38" t="n">
-        <v>183.5391911448335</v>
+        <v>183.5391911448334</v>
       </c>
       <c r="K38" t="n">
-        <v>275.0776698989924</v>
+        <v>275.0776698989923</v>
       </c>
       <c r="L38" t="n">
-        <v>341.2581735411515</v>
+        <v>341.2581735411514</v>
       </c>
       <c r="M38" t="n">
-        <v>379.7154714751055</v>
+        <v>379.7154714751054</v>
       </c>
       <c r="N38" t="n">
-        <v>385.859664783876</v>
+        <v>385.8596647838759</v>
       </c>
       <c r="O38" t="n">
-        <v>364.35633976352</v>
+        <v>364.3563397635199</v>
       </c>
       <c r="P38" t="n">
         <v>310.9697063063194</v>
       </c>
       <c r="Q38" t="n">
-        <v>233.5252987848614</v>
+        <v>233.5252987848613</v>
       </c>
       <c r="R38" t="n">
         <v>135.8399236012506</v>
       </c>
       <c r="S38" t="n">
-        <v>49.27789002150715</v>
+        <v>49.27789002150714</v>
       </c>
       <c r="T38" t="n">
-        <v>9.466328626183103</v>
+        <v>9.466328626183101</v>
       </c>
       <c r="U38" t="n">
         <v>0.1729997236081434</v>
@@ -33970,43 +33970,43 @@
         <v>11.1745478899825</v>
       </c>
       <c r="I39" t="n">
-        <v>39.83660351333454</v>
+        <v>39.83660351333453</v>
       </c>
       <c r="J39" t="n">
         <v>109.3146848765273</v>
       </c>
       <c r="K39" t="n">
-        <v>186.8362078408201</v>
+        <v>186.83620784082</v>
       </c>
       <c r="L39" t="n">
-        <v>251.224338462118</v>
+        <v>251.2243384621179</v>
       </c>
       <c r="M39" t="n">
-        <v>293.1669534987689</v>
+        <v>293.1669534987688</v>
       </c>
       <c r="N39" t="n">
-        <v>300.9262104123853</v>
+        <v>300.9262104123852</v>
       </c>
       <c r="O39" t="n">
-        <v>275.2886918201094</v>
+        <v>275.2886918201093</v>
       </c>
       <c r="P39" t="n">
         <v>220.9434450654215</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.6948418665081</v>
+        <v>147.694841866508</v>
       </c>
       <c r="R39" t="n">
-        <v>71.8378292146196</v>
+        <v>71.83782921461959</v>
       </c>
       <c r="S39" t="n">
         <v>21.4914669909518</v>
       </c>
       <c r="T39" t="n">
-        <v>4.663673710669353</v>
+        <v>4.663673710669352</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07612089843312334</v>
+        <v>0.07612089843312332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9700215035302925</v>
+        <v>0.9700215035302924</v>
       </c>
       <c r="H40" t="n">
-        <v>8.624373004114789</v>
+        <v>8.624373004114787</v>
       </c>
       <c r="I40" t="n">
         <v>29.17119212434735</v>
       </c>
       <c r="J40" t="n">
-        <v>68.58052029959168</v>
+        <v>68.58052029959167</v>
       </c>
       <c r="K40" t="n">
         <v>112.6988619556103</v>
       </c>
       <c r="L40" t="n">
-        <v>144.2157424430401</v>
+        <v>144.21574244304</v>
       </c>
       <c r="M40" t="n">
         <v>152.0552798670257</v>
@@ -34073,19 +34073,19 @@
         <v>117.3196916633364</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.22607335470478</v>
+        <v>81.22607335470475</v>
       </c>
       <c r="R40" t="n">
-        <v>43.61569414964387</v>
+        <v>43.61569414964386</v>
       </c>
       <c r="S40" t="n">
-        <v>16.90482929334155</v>
+        <v>16.90482929334154</v>
       </c>
       <c r="T40" t="n">
-        <v>4.144637333265794</v>
+        <v>4.144637333265793</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05291026382892511</v>
+        <v>0.05291026382892509</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>275.0776698989923</v>
       </c>
       <c r="L41" t="n">
-        <v>341.2581735411521</v>
+        <v>341.2581735411514</v>
       </c>
       <c r="M41" t="n">
         <v>379.7154714751054</v>
@@ -34152,7 +34152,7 @@
         <v>310.9697063063194</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5252987848613</v>
+        <v>233.5252987848618</v>
       </c>
       <c r="R41" t="n">
         <v>135.8399236012506</v>
@@ -34368,7 +34368,7 @@
         <v>83.36964805503693</v>
       </c>
       <c r="J44" t="n">
-        <v>183.5391911448334</v>
+        <v>183.5391911448339</v>
       </c>
       <c r="K44" t="n">
         <v>275.0776698989923</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>10.40151498580133</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M5" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N5" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="O5" t="n">
-        <v>25.16252739216594</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>30.41378964732351</v>
+        <v>30.41378964732348</v>
       </c>
       <c r="M6" t="n">
-        <v>14.14234290749095</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="N6" t="n">
-        <v>32.36675456763109</v>
+        <v>14.14234290749089</v>
       </c>
       <c r="O6" t="n">
-        <v>32.36675456763109</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P6" t="n">
-        <v>18.86962892114948</v>
+        <v>18.86962892114946</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>13.71099607148916</v>
       </c>
       <c r="L9" t="n">
         <v>48.84991590744984</v>
       </c>
       <c r="M9" t="n">
-        <v>60.2322170379165</v>
+        <v>21.0898433982263</v>
       </c>
       <c r="N9" t="n">
         <v>60.2322170379165</v>
       </c>
       <c r="O9" t="n">
-        <v>34.097304815078</v>
+        <v>59.52868238327905</v>
       </c>
       <c r="P9" t="n">
         <v>35.08358842248025</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264158</v>
       </c>
       <c r="K11" t="n">
-        <v>39.24845756512403</v>
+        <v>39.24845756512406</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824614</v>
+        <v>72.9196116982462</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O11" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637766</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995382</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707948</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440877</v>
+        <v>76.4377934844088</v>
       </c>
       <c r="M12" t="n">
         <v>101.9083545190844</v>
@@ -35503,13 +35503,13 @@
         <v>114.0657868347607</v>
       </c>
       <c r="O12" t="n">
-        <v>89.75915597013473</v>
+        <v>89.75915597013476</v>
       </c>
       <c r="P12" t="n">
-        <v>59.34620864156193</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.8961388649724</v>
+        <v>6.896138864972414</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>7.903490235199428</v>
+        <v>7.903490235199442</v>
       </c>
       <c r="M13" t="n">
-        <v>10.47239902839743</v>
+        <v>10.47239902839745</v>
       </c>
       <c r="N13" t="n">
-        <v>15.3823704418853</v>
+        <v>15.38237044188531</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8712322498102907</v>
+        <v>0.8712322498103049</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264201</v>
+        <v>3.960183850264158</v>
       </c>
       <c r="K14" t="n">
-        <v>39.24845756512411</v>
+        <v>39.24845756512406</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824626</v>
+        <v>72.9196116982462</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N14" t="n">
         <v>106.6087881627674</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637772</v>
+        <v>91.91218103637766</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995388</v>
+        <v>55.79274776995382</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.2694590314288</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707951</v>
+        <v>34.22817390707948</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440886</v>
+        <v>76.4377934844088</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347608</v>
+        <v>114.0657868347607</v>
       </c>
       <c r="O15" t="n">
-        <v>89.75915597013481</v>
+        <v>89.75915597013476</v>
       </c>
       <c r="P15" t="n">
-        <v>59.34620864156199</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972457</v>
+        <v>6.896138864972414</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>7.903490235199484</v>
+        <v>7.903490235199442</v>
       </c>
       <c r="M16" t="n">
-        <v>10.47239902839749</v>
+        <v>10.47239902839745</v>
       </c>
       <c r="N16" t="n">
-        <v>15.38237044188536</v>
+        <v>15.38237044188531</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8712322498103333</v>
+        <v>0.8712322498103049</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264244</v>
+        <v>3.960183850264158</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512417</v>
+        <v>39.24845756512406</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824634</v>
+        <v>72.9196116982462</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O17" t="n">
-        <v>91.9121810363778</v>
+        <v>91.91218103637766</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995396</v>
+        <v>55.79274776995382</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142885</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707955</v>
+        <v>34.22817390707948</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440891</v>
+        <v>76.4377934844088</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N18" t="n">
-        <v>114.0657868347609</v>
+        <v>114.0657868347607</v>
       </c>
       <c r="O18" t="n">
-        <v>89.7591559701349</v>
+        <v>89.75915597013476</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156204</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972485</v>
+        <v>6.896138864972414</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.903490235199513</v>
+        <v>7.903490235199442</v>
       </c>
       <c r="M19" t="n">
-        <v>10.47239902839752</v>
+        <v>10.47239902839745</v>
       </c>
       <c r="N19" t="n">
-        <v>15.38237044188539</v>
+        <v>15.38237044188531</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498103617</v>
+        <v>0.8712322498103049</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264244</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512417</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824634</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O20" t="n">
-        <v>91.9121810363778</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995396</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142885</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707955</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440891</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347609</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O21" t="n">
-        <v>89.7591559701349</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156204</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972485</v>
+        <v>6.896138864972428</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.903490235199513</v>
+        <v>7.90349023519947</v>
       </c>
       <c r="M22" t="n">
-        <v>10.47239902839752</v>
+        <v>10.47239902839748</v>
       </c>
       <c r="N22" t="n">
-        <v>15.38237044188539</v>
+        <v>15.38237044188533</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498103617</v>
+        <v>0.8712322498103191</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>65.85935320248737</v>
+        <v>65.85935320248731</v>
       </c>
       <c r="K38" t="n">
         <v>132.019266719755</v>
       </c>
       <c r="L38" t="n">
-        <v>188.0100038106598</v>
+        <v>188.0100038106597</v>
       </c>
       <c r="M38" t="n">
-        <v>229.9904198773782</v>
+        <v>229.9904198773781</v>
       </c>
       <c r="N38" t="n">
-        <v>236.7411734460919</v>
+        <v>236.7411734460918</v>
       </c>
       <c r="O38" t="n">
-        <v>214.7925023394236</v>
+        <v>214.7925023394235</v>
       </c>
       <c r="P38" t="n">
         <v>160.6682590653942</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.02660036646924</v>
+        <v>89.02660036646918</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>26.87022754319395</v>
+        <v>26.87022754319393</v>
       </c>
       <c r="K39" t="n">
-        <v>97.23927250748672</v>
+        <v>97.23927250748669</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1639916051998</v>
+        <v>161.1639916051997</v>
       </c>
       <c r="M39" t="n">
         <v>200.7798314494569</v>
@@ -37636,13 +37636,13 @@
         <v>215.5540975582186</v>
       </c>
       <c r="O39" t="n">
-        <v>182.6011329312205</v>
+        <v>182.6011329312204</v>
       </c>
       <c r="P39" t="n">
-        <v>133.8600802461069</v>
+        <v>133.8600802461068</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.70668871059407</v>
+        <v>56.70668871059404</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>28.84024414476234</v>
+        <v>28.84024414476231</v>
       </c>
       <c r="L40" t="n">
-        <v>56.54070286023517</v>
+        <v>56.54070286023514</v>
       </c>
       <c r="M40" t="n">
-        <v>61.75352030108247</v>
+        <v>61.75352030108245</v>
       </c>
       <c r="N40" t="n">
-        <v>65.44414126964776</v>
+        <v>65.44414126964773</v>
       </c>
       <c r="O40" t="n">
-        <v>47.1113803416567</v>
+        <v>47.11138034165667</v>
       </c>
       <c r="P40" t="n">
-        <v>27.79648903139049</v>
+        <v>27.79648903139046</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>132.019266719755</v>
       </c>
       <c r="L41" t="n">
-        <v>188.0100038106604</v>
+        <v>188.0100038106597</v>
       </c>
       <c r="M41" t="n">
         <v>229.9904198773781</v>
@@ -37800,7 +37800,7 @@
         <v>160.6682590653942</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.02660036646918</v>
+        <v>89.02660036646967</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.85935320248731</v>
+        <v>65.85935320248778</v>
       </c>
       <c r="K44" t="n">
         <v>132.019266719755</v>
